--- a/data/TwitterSentimentAnalysis.xlsx
+++ b/data/TwitterSentimentAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="399">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,42 @@
     <t>Sentiment</t>
   </si>
   <si>
+    <t>1513241042191069194</t>
+  </si>
+  <si>
+    <t>1513234233103425548</t>
+  </si>
+  <si>
+    <t>1513222822100979712</t>
+  </si>
+  <si>
+    <t>1513209907901837318</t>
+  </si>
+  <si>
+    <t>1513162687450124295</t>
+  </si>
+  <si>
+    <t>1513154797310033923</t>
+  </si>
+  <si>
+    <t>1513138622085713923</t>
+  </si>
+  <si>
+    <t>1513103545775673351</t>
+  </si>
+  <si>
+    <t>1513057270279643140</t>
+  </si>
+  <si>
+    <t>1513050410533195778</t>
+  </si>
+  <si>
+    <t>1513044515820650498</t>
+  </si>
+  <si>
+    <t>1512977095735099394</t>
+  </si>
+  <si>
     <t>1512914743245381633</t>
   </si>
   <si>
@@ -127,6 +163,390 @@
     <t>1512584904592310282</t>
   </si>
   <si>
+    <t>1512538756930277379</t>
+  </si>
+  <si>
+    <t>1512533739317964812</t>
+  </si>
+  <si>
+    <t>1512531780401782784</t>
+  </si>
+  <si>
+    <t>1512530807671463937</t>
+  </si>
+  <si>
+    <t>1512526275382063104</t>
+  </si>
+  <si>
+    <t>1512520448227123201</t>
+  </si>
+  <si>
+    <t>1512519568505417733</t>
+  </si>
+  <si>
+    <t>1512514189243387909</t>
+  </si>
+  <si>
+    <t>1512486676232564738</t>
+  </si>
+  <si>
+    <t>1512482304488267776</t>
+  </si>
+  <si>
+    <t>1512477576371052552</t>
+  </si>
+  <si>
+    <t>1512477137462210568</t>
+  </si>
+  <si>
+    <t>1512468418070560778</t>
+  </si>
+  <si>
+    <t>1512464768166244361</t>
+  </si>
+  <si>
+    <t>1512463167166857222</t>
+  </si>
+  <si>
+    <t>1512462067999121413</t>
+  </si>
+  <si>
+    <t>1512458824074108937</t>
+  </si>
+  <si>
+    <t>1512456137060368397</t>
+  </si>
+  <si>
+    <t>1512453841207373830</t>
+  </si>
+  <si>
+    <t>1512450862236553217</t>
+  </si>
+  <si>
+    <t>1512450546883510272</t>
+  </si>
+  <si>
+    <t>1512447322919256064</t>
+  </si>
+  <si>
+    <t>1512447173899735040</t>
+  </si>
+  <si>
+    <t>1512445252514242567</t>
+  </si>
+  <si>
+    <t>1512442498974683145</t>
+  </si>
+  <si>
+    <t>1512438091222597640</t>
+  </si>
+  <si>
+    <t>1512430505098194948</t>
+  </si>
+  <si>
+    <t>1512421358604632064</t>
+  </si>
+  <si>
+    <t>1512418202843758597</t>
+  </si>
+  <si>
+    <t>1512417299558502405</t>
+  </si>
+  <si>
+    <t>1512397477726597127</t>
+  </si>
+  <si>
+    <t>1512361307483381767</t>
+  </si>
+  <si>
+    <t>1512358200128983047</t>
+  </si>
+  <si>
+    <t>1512342316794662914</t>
+  </si>
+  <si>
+    <t>1512322461173522433</t>
+  </si>
+  <si>
+    <t>1512305413739454467</t>
+  </si>
+  <si>
+    <t>1512302568847912960</t>
+  </si>
+  <si>
+    <t>1512284949809934338</t>
+  </si>
+  <si>
+    <t>1512239649703481360</t>
+  </si>
+  <si>
+    <t>1512237013528981534</t>
+  </si>
+  <si>
+    <t>1512230054012473347</t>
+  </si>
+  <si>
+    <t>1512198486799925248</t>
+  </si>
+  <si>
+    <t>1512191996005396491</t>
+  </si>
+  <si>
+    <t>1512154262004015110</t>
+  </si>
+  <si>
+    <t>1512147560303140877</t>
+  </si>
+  <si>
+    <t>1512147029920735241</t>
+  </si>
+  <si>
+    <t>1512141305857650693</t>
+  </si>
+  <si>
+    <t>1512114833478541312</t>
+  </si>
+  <si>
+    <t>1512093857873379342</t>
+  </si>
+  <si>
+    <t>1512087305653088273</t>
+  </si>
+  <si>
+    <t>1512067899065712642</t>
+  </si>
+  <si>
+    <t>1512045446730031108</t>
+  </si>
+  <si>
+    <t>1512034192653180929</t>
+  </si>
+  <si>
+    <t>1512025988011544579</t>
+  </si>
+  <si>
+    <t>1512022464582369292</t>
+  </si>
+  <si>
+    <t>1512013265274126341</t>
+  </si>
+  <si>
+    <t>1512010822998007808</t>
+  </si>
+  <si>
+    <t>1511994329119834115</t>
+  </si>
+  <si>
+    <t>1511987707576295424</t>
+  </si>
+  <si>
+    <t>1511986134322192387</t>
+  </si>
+  <si>
+    <t>1511977477526147073</t>
+  </si>
+  <si>
+    <t>1511976903246323715</t>
+  </si>
+  <si>
+    <t>1511972171702317058</t>
+  </si>
+  <si>
+    <t>1511949764480413696</t>
+  </si>
+  <si>
+    <t>1511939318050439172</t>
+  </si>
+  <si>
+    <t>1511895312851517443</t>
+  </si>
+  <si>
+    <t>1511801997065961480</t>
+  </si>
+  <si>
+    <t>1511797858122534921</t>
+  </si>
+  <si>
+    <t>1511794336891027468</t>
+  </si>
+  <si>
+    <t>1511786228877770757</t>
+  </si>
+  <si>
+    <t>1511780229529878532</t>
+  </si>
+  <si>
+    <t>1511779470524493828</t>
+  </si>
+  <si>
+    <t>1511778498846863363</t>
+  </si>
+  <si>
+    <t>1511764138636333063</t>
+  </si>
+  <si>
+    <t>1511759271050059786</t>
+  </si>
+  <si>
+    <t>1511744301436387345</t>
+  </si>
+  <si>
+    <t>1511738243942920212</t>
+  </si>
+  <si>
+    <t>1511728071698751496</t>
+  </si>
+  <si>
+    <t>1511709528840093696</t>
+  </si>
+  <si>
+    <t>1511707129731862534</t>
+  </si>
+  <si>
+    <t>1511695128779534344</t>
+  </si>
+  <si>
+    <t>1511689671776026630</t>
+  </si>
+  <si>
+    <t>1511678664202674180</t>
+  </si>
+  <si>
+    <t>1511675449331572740</t>
+  </si>
+  <si>
+    <t>1511672008299397120</t>
+  </si>
+  <si>
+    <t>1511667854768234501</t>
+  </si>
+  <si>
+    <t>1511664075540946949</t>
+  </si>
+  <si>
+    <t>1511646496717955073</t>
+  </si>
+  <si>
+    <t>1511610878801723393</t>
+  </si>
+  <si>
+    <t>1511595255963000834</t>
+  </si>
+  <si>
+    <t>1511514643524632577</t>
+  </si>
+  <si>
+    <t>1511514353031421953</t>
+  </si>
+  <si>
+    <t>1511455742330560515</t>
+  </si>
+  <si>
+    <t>1511455709648629767</t>
+  </si>
+  <si>
+    <t>1511436111566016522</t>
+  </si>
+  <si>
+    <t>1511434013684211712</t>
+  </si>
+  <si>
+    <t>1511431238376374272</t>
+  </si>
+  <si>
+    <t>1511428855076114438</t>
+  </si>
+  <si>
+    <t>1511425533451636740</t>
+  </si>
+  <si>
+    <t>1511424491309699080</t>
+  </si>
+  <si>
+    <t>1511418235031334913</t>
+  </si>
+  <si>
+    <t>1511414706791137284</t>
+  </si>
+  <si>
+    <t>1511413496369623049</t>
+  </si>
+  <si>
+    <t>1511412500755009544</t>
+  </si>
+  <si>
+    <t>1511412023443304454</t>
+  </si>
+  <si>
+    <t>1511410319075291143</t>
+  </si>
+  <si>
+    <t>1511409637651894283</t>
+  </si>
+  <si>
+    <t>1511408811554316292</t>
+  </si>
+  <si>
+    <t>1511407434497150983</t>
+  </si>
+  <si>
+    <t>1511405442009813010</t>
+  </si>
+  <si>
+    <t>1511394210905272329</t>
+  </si>
+  <si>
+    <t>1511387625386647558</t>
+  </si>
+  <si>
+    <t>1511386652924690441</t>
+  </si>
+  <si>
+    <t>1511377482955603974</t>
+  </si>
+  <si>
+    <t>1511366708963024901</t>
+  </si>
+  <si>
+    <t>1511364803016728581</t>
+  </si>
+  <si>
+    <t>1511353936598425602</t>
+  </si>
+  <si>
+    <t>ankarasporbilim</t>
+  </si>
+  <si>
+    <t>ertugrulankugvo</t>
+  </si>
+  <si>
+    <t>SKS_Ankara</t>
+  </si>
+  <si>
+    <t>Bbestekaya</t>
+  </si>
+  <si>
+    <t>bakmasanala</t>
+  </si>
+  <si>
+    <t>kaliteelcisi</t>
+  </si>
+  <si>
+    <t>AnkaraUni</t>
+  </si>
+  <si>
+    <t>cemalbas28</t>
+  </si>
+  <si>
+    <t>MuslumKorkmaz15</t>
+  </si>
+  <si>
+    <t>necdetunuvar</t>
+  </si>
+  <si>
+    <t>OfficialIbrhm</t>
+  </si>
+  <si>
     <t>alkisneslihan</t>
   </si>
   <si>
@@ -136,48 +556,27 @@
     <t>VatanSever4157</t>
   </si>
   <si>
-    <t>MuslumKorkmaz15</t>
-  </si>
-  <si>
     <t>Astro_Shadi</t>
   </si>
   <si>
     <t>UnluBerkecan</t>
   </si>
   <si>
-    <t>SKS_Ankara</t>
-  </si>
-  <si>
     <t>cihangirakyol</t>
   </si>
   <si>
     <t>ColoDebs</t>
   </si>
   <si>
-    <t>Bbestekaya</t>
-  </si>
-  <si>
-    <t>ankarasporbilim</t>
-  </si>
-  <si>
     <t>ecemyildizdal</t>
   </si>
   <si>
     <t>muammerturkcan</t>
   </si>
   <si>
-    <t>necdetunuvar</t>
-  </si>
-  <si>
     <t>denizmavisi013</t>
   </si>
   <si>
-    <t>ertugrulankugvo</t>
-  </si>
-  <si>
-    <t>AnkaraUni</t>
-  </si>
-  <si>
     <t>1eminayan</t>
   </si>
   <si>
@@ -197,6 +596,208 @@
   </si>
   <si>
     <t>jvalentinestars</t>
+  </si>
+  <si>
+    <t>AnkaraUni_Fen</t>
+  </si>
+  <si>
+    <t>Sornek3</t>
+  </si>
+  <si>
+    <t>mertdesenolur</t>
+  </si>
+  <si>
+    <t>serpiluygun06</t>
+  </si>
+  <si>
+    <t>Gunsel2</t>
+  </si>
+  <si>
+    <t>nerdill</t>
+  </si>
+  <si>
+    <t>AfamVe</t>
+  </si>
+  <si>
+    <t>biryenidetay</t>
+  </si>
+  <si>
+    <t>turgutaltinok06</t>
+  </si>
+  <si>
+    <t>gfds_inc</t>
+  </si>
+  <si>
+    <t>jsgaedutr</t>
+  </si>
+  <si>
+    <t>ankuzef</t>
+  </si>
+  <si>
+    <t>nhleminoglu</t>
+  </si>
+  <si>
+    <t>JoeOHaraDCU</t>
+  </si>
+  <si>
+    <t>auubfgayrimenk1</t>
+  </si>
+  <si>
+    <t>AutfIngilizce</t>
+  </si>
+  <si>
+    <t>GuppiGuppy</t>
+  </si>
+  <si>
+    <t>AnkaraUnivDis</t>
+  </si>
+  <si>
+    <t>turkuazgazetes1</t>
+  </si>
+  <si>
+    <t>TurkiyeHaberiTR</t>
+  </si>
+  <si>
+    <t>TurkBasin</t>
+  </si>
+  <si>
+    <t>JennyZa83982163</t>
+  </si>
+  <si>
+    <t>ProfAhmet_Uysal</t>
+  </si>
+  <si>
+    <t>musclecellnews</t>
+  </si>
+  <si>
+    <t>TokerErguder</t>
+  </si>
+  <si>
+    <t>BeltanIsmet</t>
+  </si>
+  <si>
+    <t>senbennkizz</t>
+  </si>
+  <si>
+    <t>AnalBioanalChem</t>
+  </si>
+  <si>
+    <t>YesimMogulkoc</t>
+  </si>
+  <si>
+    <t>rasim2ran</t>
+  </si>
+  <si>
+    <t>Gen4Olive</t>
+  </si>
+  <si>
+    <t>KubraVarTurk</t>
+  </si>
+  <si>
+    <t>au_tite</t>
+  </si>
+  <si>
+    <t>NY98032429</t>
+  </si>
+  <si>
+    <t>AUEBF</t>
+  </si>
+  <si>
+    <t>muallimehan3</t>
+  </si>
+  <si>
+    <t>gurkanserdalgur</t>
+  </si>
+  <si>
+    <t>tihek_kurumsal</t>
+  </si>
+  <si>
+    <t>ilefsocial</t>
+  </si>
+  <si>
+    <t>ank_nmyo</t>
+  </si>
+  <si>
+    <t>Kosgeb</t>
+  </si>
+  <si>
+    <t>kiwiibunnyy</t>
+  </si>
+  <si>
+    <t>MemAnkara</t>
+  </si>
+  <si>
+    <t>ozgethejudgment</t>
+  </si>
+  <si>
+    <t>ankeczacilik</t>
+  </si>
+  <si>
+    <t>verdabitirim</t>
+  </si>
+  <si>
+    <t>MehmetBaktir4</t>
+  </si>
+  <si>
+    <t>AhmedAlzaidi98</t>
+  </si>
+  <si>
+    <t>EdanazDizbay</t>
+  </si>
+  <si>
+    <t>havranlii</t>
+  </si>
+  <si>
+    <t>ankusamankusam</t>
+  </si>
+  <si>
+    <t>Birlik79882371</t>
+  </si>
+  <si>
+    <t>BarisColo</t>
+  </si>
+  <si>
+    <t>huseyinsina</t>
+  </si>
+  <si>
+    <t>Peru'da düzenlenen Dünya Şampiyonası'nda Portekiz'i 5-1 mağlup ederek üçüncü olan Down Sendromlular Futsal Milli Takımımızı kutluyoruz.👏
+Tebrikler bizim çocuklar!🇹🇷</t>
+  </si>
+  <si>
+    <t>Öğretmen Eğitimleri kapsamında    ü dinledik. Eğitimde İletişim: Veli-Öğrenci-Öğretmen konusu öğretmenlerimiz tarafından ilgiyle karşılandı.</t>
+  </si>
+  <si>
+    <t>☀️Bahar’ın getirdiği güzel havanın Tandoğan’a yansımaları...
+AnkaraÜniversitesi</t>
+  </si>
+  <si>
+    <t>Öğretmen Eğitimleri hız kesmeden devam ediyor.     tarafından "Öğretmenin Sınıf Liderliği ve Meslek Etiği" konulu eğitim, başarılı bir şekilde gerçekleştirildi.</t>
+  </si>
+  <si>
+    <t>Emniyet güvenlikle hep kol kola hizmet veriyor üniversitemizde de...Sıcak soğuk demeden sahada.</t>
+  </si>
+  <si>
+    <t>Üniversitemiz bakıyor bize 😍</t>
+  </si>
+  <si>
+    <t>UNV            _amasya _Univ</t>
+  </si>
+  <si>
+    <t>PolisTeşkilatı177Yaşında PolisHaftasıKutluOlsun</t>
+  </si>
+  <si>
+    <t>Başkanımız Sayın  ile birlikte, doktora eğitimime devam ettiğim Ankara Üniveristesini ziyaret ettik / Visit to  with my Mayor</t>
+  </si>
+  <si>
+    <t>en Allah emeyinizi boş etmesin abim allah birlik beraberligimizi bozmasın Allah ezanlarımızı dindirmesin bayragımızı indirmesin abim durmak yok yola devam reisimizle sizlerle abim herzaman her yerde reisimizin sizlerin yanındayız emrindeyiz abim başkanım durmak yok yola devam başknm</t>
+  </si>
+  <si>
+    <t>HaftanınÖzeti 86
+(04 Nisan- 10 Nisan 2022)
+_en</t>
+  </si>
+  <si>
+    <t>İlâhiyat, Teoloji ve Din Bilimleri alanında dünyada ilk 51-100 bandındayız. Hayırlı olsun.</t>
   </si>
   <si>
     <t xml:space="preserve">   _turkiye  _tweets Great team👍🏻👏🏻👏🏻👏🏻👏🏻👏🏻</t>
@@ -213,9 +814,6 @@
   </si>
   <si>
     <t>Gölbaşı Kampüsünüz aynen böyle durumda.......</t>
-  </si>
-  <si>
-    <t>en Allah emeyinizi boş etmesin abim allah birlik beraberligimizi bozmasın Allah ezanlarımızı dindirmesin bayragımızı indirmesin abim durmak yok yola devam reisimizle sizlerle abim herzaman her yerde reisimizin sizlerin yanındayız emrindeyiz abim başkanım durmak yok yola devam başknm</t>
   </si>
   <si>
     <t>Allah emeyinizi boş etmesin abim allah birlik beraberligimizi bozmasın Allah ezanlarımızı dindirmesin bayragımızı indirmesin abim durmak yok yola devam reisimizle sizlerle abim herzaman her yerde reisimizin sizlerin yanındayız emrindeyiz abim başkanım durmak yok yola devam başknm</t>
@@ -314,6 +912,414 @@
   </si>
   <si>
     <t>merhaba bir şey sorabilir miyim acaba</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Kısa Film Festivali _Ankara
+Başvuru: 
+Son Başvuru Tarihi: 25 Mayıs</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Rektörü Prof. Dr. Necdet Ünüvar ve Üniversite Yönetimi, Halk Oyunları Kursiyerleriyle Bir Araya Geldi.
+unihaber</t>
+  </si>
+  <si>
+    <t>Keçiören Belediye Başkanı Turgut Altınok, Uygulamalı Bilimler Fakültemiz tarafından düzenlenen “Türkiye’de Belediye Yönetimleri ve Sorunları” konulu seminere katıldı.
+unihaber</t>
+  </si>
+  <si>
+    <t>Jandarma ve Sahil Güvenlik Akademisi ile Ankara Üniversitesi arasında kurumsal iş birliği protokolü imzalandı. 
+unihaber</t>
+  </si>
+  <si>
+    <t>Kampüsümüz öğrencilerimizle güzel...
+ankarafen
+_halicioglu</t>
+  </si>
+  <si>
+    <t>Elektronik aktüel dergimiz Ünihabere  “Üniversite sıralama sistemleri ve kalite” başlıklı köşe yazımızla katkı sunmaktan memnuniyet duyduk...Dergimize yayın hayatında başarılar dilerim...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   _turkiye  _tweets  👍👏👏</t>
+  </si>
+  <si>
+    <t>Önce Rektörümüz  Halk oyunları Kursu öğrencilerimizin çalışmalarını izledi. Ardından bu güzel Ramazan akşamında öğrencilerimizle Milli piyango kız yurdumuzda 🍱iftar yemeğinde bir araya gelerek samimi bir sohbet gerçekleştirdi.
+ankaraüniversitesi</t>
+  </si>
+  <si>
+    <t>3 kere basvuru yaptigim 3 unde de maalesef red aldigim  katilmayi cok istedigim ama bir turlu nasip olmayan program bu sene de sansimi denemeliyim bence</t>
+  </si>
+  <si>
+    <t>📣ULUSAL KISA FİLM FESTİVALi
+🎥Kısa Film Öğrenci 
+Topluluğumuz ile birlikte düzenlediğimiz “Ulusal Kısa Film Festivali ve Yarışması” başvuruları başladı. 
+🗓 Son Başvuru: 25 Mayıs 2022
+⏰17:00
+⬇️ Detaylar;
+AnkaraÜniversitesi</t>
+  </si>
+  <si>
+    <t>Heyecanla bekliyorum! 😊</t>
+  </si>
+  <si>
+    <t>Kimya daha yükselmeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   _turkiye  _tweets  Daha çok hastaya şifa vermeniz dileklerimle, emeklerinize sağlık👏</t>
+  </si>
+  <si>
+    <t>Today, we operated on our 100th colorectal cancer patient using the ERAS protocol. We are making progress toward becoming an ERAS center of excellence one step at a time. Great teamwork. _   _turkiye  _tweets</t>
+  </si>
+  <si>
+    <t>sağlık alanındaki iki güzide Fakültesi _DEKANLIK  arasında akılcı ilaç kullanımının desteklenmesi ve klinik eczacıların yardımıyla sağlık çalışanları ile hastaların ilaç kullanımı konusunda bilinçlendirilmesine yönelik  işbirliği protokolü imzalandı.</t>
+  </si>
+  <si>
+    <t>Innsbruck, Avusturya çığ önlem yapıları projesi</t>
+  </si>
+  <si>
+    <t>alanındaki iki güzide Fakültesi _DEKANLIK ile  arasında akılcı ilaç kullanımının desteklenmesi ve klinik eczacıların yardımıyla sağlık çalışanları ile hastaların ilaç kullanımı konusunda bilinçlendirilmesine yönelik işbirliği protokolü imzalandı.</t>
+  </si>
+  <si>
+    <t>sağlık alanındaki iki güzide Fakültesi
+ ile  arasında akılcı ilaç kullanımının desteklenmesi ve klinik eczacıların yardımıyla sağlık çalışanları ile hastaların ilaç kullanımı konusunda bilinçlendirilmesine yönelik işbirliği protokolü imzalandı</t>
+  </si>
+  <si>
+    <t>Katılacak arkadaşları şimdiden tebrik ederim. Her biri ayrı kıymetli hocalarla tanışıp, bu çok özel ve eğitici programın parçası olacaklar. Programa daha önce katılmış olanlar için, 'Göç V2 Sertifika Programı' beklediğimi de belirteyim😊 Sevgiler🍀</t>
+  </si>
+  <si>
+    <t>Değerli katılımcılarla deneyimlerimizi, göreve geldiğimiz günden bugüne Keçiören'e kattığımız değeri, eser ve projelerimizi paylaştık.</t>
+  </si>
+  <si>
+    <t>için sanal gerçeklik teknolojisi ile geliştirdiğimiz "Hayvancılık” eğitim uygulamamızı sonlandırdık.👍🏻
+Detaylar için videomuzu izleyebilirsiniz.👀</t>
+  </si>
+  <si>
+    <t>Jandarma ve Sahil Güvenlik Akademisi ile Ankara Üniversitesi arasında imzalanan kurumsal işbirliği protokolünün tüm bilimsel çalışmalarımıza ışık tutmasını temenni ediyoruz.🖋📖</t>
+  </si>
+  <si>
+    <t>"All Digital Week" kapsamında  Başdanışmanı Dr. Samar Farah'ın konuşmacı olarak katılacağı "What Skills for What Jobs: Helping Students Navigate the Job Landscape" adlı webinar, 13 Nisan 2022'de yapılacaktır.  ADWeeks2022</t>
+  </si>
+  <si>
+    <t>2022'nin ilk  Göç Sertifika Programı 18-22 Nisan'da  ev sahipliğinde! Kadro yine efsane!           _org _igamder</t>
+  </si>
+  <si>
+    <t>Göç Sertifika Programımız yeni dönemde  ile AÜ. Mülkiye Göç Araştırmaları Merkezi (MÜGAM)  işbirliğinde devam ediyor. 
+2022'nin ilk programı  ev sahipliğinde 
+18-22 Nisan'da! 
+Başvuru ve bilgi için 👇 Yeni rekorlar bekliyoruz 😊</t>
+  </si>
+  <si>
+    <t>Outstanding 1st _irl paper by  from   &amp;amp; _DCU on Academic capitalism and the nature of contemporary higher education. Great to hear new voices emerging and congrats to _irl on the Early Career track this year.</t>
+  </si>
+  <si>
+    <t>Hayatlara umut olan, bilgi, emek sabır ve azimle bu hayatlara yıllar ve anlam katan tüm Fizyoterapistlerimizin “8 Nisan Türkiye Fizyoterapistler Günü” kutlu olsun.
+FizyoterapistlerGünüKutluOlsun
+  _DEKANLIK</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Tıp Fakültesi ile Eczacılık Fakültesi Arasında Akademik İş Birliği Protokolü İmzalandı
+unihaber</t>
+  </si>
+  <si>
+    <t>sağlık alanındaki iki güzide Fakültesi  ile  arasında akılcı ilaç kullanımının desteklenmesi ve klinik eczacıların yardımıyla sağlık çalışanları ile hastaların ilaç kullanımı konusunda bilinçlendirilmesine yönelik işbirliği protokolü imzalandı</t>
+  </si>
+  <si>
+    <t>QS 2022’de Ankara Üniversitesi
+Emeği geçen tüm Ankara Üniversitelilere teşekkür ederiz!</t>
+  </si>
+  <si>
+    <t>Gayrimenkul Sektör Seminerleri dersinde, 8 Nisan 2022 (Cuma) tarihli ve “Türkiye'de Belediye Yönetimleri ve Sorunları" konulu seminerde Keçiören Belediye Başkanı Sayın Turgut Altınok ağırlanacaktır.</t>
+  </si>
+  <si>
+    <t>Konferans salonu güzel olmuş gerçekten.</t>
+  </si>
+  <si>
+    <t>İyi günler Harun bey. Pursaklar/Sarayköy İlköğretim okulu duvarı, siyasi partilerin reklam ve ilan panosu müdür acaba? Esenlikler dilerim</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Diş Hekimliği Fakültesi Dekanı Prof.Dr.Kaan Orhan 20 Nisan 2022 tarihinde Diş Hekimliği alanında ilk kez yapılacak olan “Metaverse” Dersini fakülte öğrencilerine verecektir.</t>
+  </si>
+  <si>
+    <t>Kartepe Zirvesi Lansmanı yapıldı
+  _kurum</t>
+  </si>
+  <si>
+    <t>ODTU  _Universite       Başkanım o kadar uğraşıyorsunuz sonra maça gelenler düşme hattındaki takımın kendi evinde vasat futbolunu bir puana yatışını, 90+4 de oyuncu değişikligini falan izleyip lanet ediyor ne kadar kötü</t>
+  </si>
+  <si>
+    <t>TÜBİTAK projesi kapsamında üniversitemizde uluslararası çalıştay düzenlenecek</t>
+  </si>
+  <si>
+    <t>Birlikte Yaşama Kültürünü Geliştirmede Sosyal Uyum ve Çatışma Çözümü Üzerine Sertifika Programı
+🔸Program Ortakları:</t>
+  </si>
+  <si>
+    <t>New research out of  indicates that ticagrelor can exert an important regulatory effect on diabetic cardiomyopathy through extracellular vesicular modulation behind its receptor-inhibition-related effects. 🔁
+OpenAccess: 📖</t>
+  </si>
+  <si>
+    <t>🍿Sinema Günleri’nde geldik üçüncü haftaya. 
+🎥Gürcü Yönetmen Zaza Urushzade’nin tüm dünyada ses getiren yapıtı “Mandalina Bahçesi” filmini izliyoruz. 
+🗓8 Nisan Cuma
+⏰20.00
+➡️Başvurular, yarın saat 12.00’da alınacaktır.</t>
+  </si>
+  <si>
+    <t>Celebrated 75th birthday of the  at the Ankara University Health Sciences Faculty 🇹🇷🧿 🎂🎉.  
+WorldHealthDay2022    HealthierTomorrow _Saglik</t>
+  </si>
+  <si>
+    <t>HaydiGençlerMaça  Bütün Öğrenci Kardeşlerimizi bu önemli maçımız davet ediyoruz Haydi Gençler yeriniz Hazır Tribünde.Gençlerbirliği   _ODTU  _Universite</t>
+  </si>
+  <si>
+    <t>Üniversitemiz Sağlık Bilimleri Fakültesi tarafından “7 Nisan Dünya Sağlık Günü” dolayısıyla “Sürdürülebilir Sağlıklı Toplumlar” başlıklı panel düzenlendi.
+unihaber</t>
+  </si>
+  <si>
+    <t>Yetişkin bir bireyin bununla doyabilecegini kim dusunduyse alkislamak istiyorum. Yarisi bittikten sonra lavaş kemirdim. Yurtlarinizda kalan öğrencileri gördünüz mü ?</t>
+  </si>
+  <si>
+    <t>A porous molecularly imprinted electrochemical sensor for determination of bisphenol S from human serum and bottled water samples
+by Sibel A. Ozkan et al   _en  _Saglik  BPS</t>
+  </si>
+  <si>
+    <t>TeknofestKaradeniz ve  için çalışmalarımız devam ediyor. Danışma Kurulu toplantımıza katılan  genel müdürümüz   ve ANKÜ GVO genel müdürümüz 'e ve _Ankara'a teşekkür ederim.</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi TEKNOFEST Danışma Kurulu 3. toplantısı gerçekleşitirildi.</t>
+  </si>
+  <si>
+    <t>AKUT Ankara ekibi, 07 Nisan 2022 tarihinde, Fakültemizde "Deprem Bilinçlendirme Semineri" vermiştir.
+Kendilerine çok teşekkür ediyoruz.💐
+   _Dernegi</t>
+  </si>
+  <si>
+    <t>Değerli antrenörümüzü ve oyuncularımızı yürekten kutluyoruz!👏💐
+ankaraüniversitesi</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi ile Ankara İl Milli Eğitim Müdürlüğü arasında, Millî Eğitim Bakanlığına bağlı eğitim kurumlarında sağlık eğitimin niteliğini arttırmaya yönelik iş birliği protokolü imzalandı.
+unihaber</t>
+  </si>
+  <si>
+    <t>Bu olay kısa bir zaman sonra
+HOLLYWOOD FİLMİ olarak evimize, ekranlarınıza girecek ve Türk hukuku yerden yere vurulacak....
+Bu ayıp ile Türkiye Cumhuriyeti Mahkemeeleri nasıl yaşayacaklar❓😡
+_bakanlik</t>
+  </si>
+  <si>
+    <t>kurumsal   _bakanlik    
+ReisMilyonlar AFistiyor
+ReisMilyonlar AFistiyor
+ReisMilyonlar AFistiyor 
+  _Bilgi  _bakanlik</t>
+  </si>
+  <si>
+    <t>FOOD  _Ricerca</t>
+  </si>
+  <si>
+    <t>Öğrencilerin AÜHF'ye olan ilgisi mutluluk vericiydi.
+En çok sorulan sorulardan biri her zamanki gibi "Kanun maddelerini ezberliyor muyuz?" oldu. 
+Hukuk eğitimiyle ilgili yanlış bilinenlerin başında bu konu geliyor.</t>
+  </si>
+  <si>
+    <t>4 Mevsim x 360 Derece "Beşevler"
+İletişim Fakültemiz NETlab Ekibi Beşevler Yerleşkemizde 4 Mevsimi 360 video teknolojisi ile görüntüledi.
+Cep telefonları ve VR cihazlarınızla 360° video görüntülemeyi deneyimleyebilirsiniz.</t>
+  </si>
+  <si>
+    <t>Sempozyum: Türk İnkılap Tarihi Enstitüsü'nün Kuruluşunun 80. Yılında Mezunlarının Gözünden Türk İnkılabı
+Yer: Ankara Üniversitesi 
+Beşevler 10. Yıl Yerleşkesi 
+Rektörlük 100. Yıl Salonu
+Tarih: 14-15 Nisan 2022 
+Saat: 10.00-18.00</t>
+  </si>
+  <si>
+    <t>📣 Konya Gezisi...
+🚎 Günübirlik bir Konya turu yapalım diyoruz, bize katılmak ister misiniz? 
+⬇️ Başvurular, 13.00’da
+ üzerinden alınacaktır.
+AnkaraÜniversitesi</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Yavuz Ercan'ı Anma Programı, 13 Nisan 2022, Saat: 13.00, AÜ DTCF Muzaffer Göker Salonu
+_DtcfResmi</t>
+  </si>
+  <si>
+    <t>Dünya Masa Tenisi Günü kutlu olsun.
+MasaTenisi TableTennis</t>
+  </si>
+  <si>
+    <t>Dünya Sağlık Günü’nde; önceliği insan hayatı olan sağlık çalışanlarımızın fedakarlıklarını takdir ediyor, çalışmalarında başarılar diliyoruz.
+7nisandünyasağlıkgünü kutlu olsun.
+ankaraüniversitesi tıpfakültesi  
+  _DEKANLIK</t>
+  </si>
+  <si>
+    <t>“Aç tavuk darı ambarını yıkar”
+Hal yasası çok acil çıkarılmalı.
+Ne yapıp edip fiyatlar kontrol altına alınmalı. Temel ihtiyaçlarda tedarik zincirinde dönen oyunlara son verilmeli.</t>
+  </si>
+  <si>
+    <t>7. Ulusal Çağdaş Siyaset Felsefesi Sempozyumu 26-27 Mayıs 2022 tarihleri arasında online platformda gerçekleşecektir.</t>
+  </si>
+  <si>
+    <t>🛑Biz Insaniz insannn Bu sistemden haberdar olmamanız mümkün değil çünkü düzeni kuran sizsiniz !!
+Ücretli Öğretmenler olarak mağduruz !!
+🛑Kesintiler ile 2 bin altında kalan maaş(88 saat) 
+🛑SGK 9 Gün Görmezden gelmek sizin için kolay ama geçinmeye çalışan bizler için zor.</t>
+  </si>
+  <si>
+    <t>Uni</t>
+  </si>
+  <si>
+    <t>Kariyer Gelişim Programı kapsamında düzenlenen Geleneksel 5.Üniversite Tanıtım Günleri.</t>
+  </si>
+  <si>
+    <t>Bu yıl, Dünya Sağlık Örgütünün 74. yaş gününü Ankara Üniversitesi Sağlık Bilimleri Fakültesinde çok önemli katılımcılarla birlikte kutlayacağız 🎂🧿😊.</t>
+  </si>
+  <si>
+    <t>🌞 İndik, Güneş Meydan’ına sorduk: “Bahar’da vizelere çalışma süreci nasıl gidiyor?”
+AnkaraÜniversitesi</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi ile KOSGEB  arasında iş birliği protokolü imzaladık. Sn  ile imzaladığımız protokolle 'nin bilimsel gücü ile 'in icra kabiliyeti arasında ciddi bir ivme yakalayacağımıza inanıyoruz.</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi ile KOSGEB Arasında İş Birliği Protokolü İmzalandı
+unihaber</t>
+  </si>
+  <si>
+    <t>📢 ve _bakanlik iş birliği ile 10 Mayıs-30 Haziran 2022 tarihleri arasında Başkanımız Prof. Dr. Muharrem Kılıç'ın da eğiticileri arasında yer alacağı İnsan Hakları Sertifika Programı düzenlenecektir. Detaylı bilgiye ekteki afişten ulaşabilirsiniz.</t>
+  </si>
+  <si>
+    <t>ile   arasında, KOSGEB tarafından yürütülen faaliyetlerine ilişkin her türlü süreçte görev yapmak ve mesleki bilgi deneyiminden faydalanmak üzere geçici süreyle öğretim elemanı görevlendirilmesini kapsayan iş birliği protokolü imzaladık.</t>
+  </si>
+  <si>
+    <t>Cumhurbaşkanlığı İnsan Kaynakları Ofisi Projeleri için Çalışmalar Başlıyor!</t>
+  </si>
+  <si>
+    <t>Akbank Kısa Film Festivali’nin ödüllü filmleri üniversitelerde</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Geliştirme Vakfı Özel Okulları Tarafından 5. Üniversite Tanıtım Günü Düzenlendi
+unihaber</t>
+  </si>
+  <si>
+    <t>Türkiye Üniversiteler Kick Boks Şampiyonasında Yüksekokulumuz öğrencilerinden Bilal Yılmaz, Point Fighting branşında derece girerek, 3ncü olmuştur.
+Öğrencimizi başarısından dolayı kutlarız.
+unihaber</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi ile iş birliği protokolü imzalandı. Öğretim elemanlarının görevlendirmelerine ilişkin protokol, KOSGEB Başkanı  ile  Rektörü Prof. Dr.  tarafından imza altına alındı.
+KOSGEBleDahaGüçlü💪</t>
+  </si>
+  <si>
+    <t>DtcfResmi</t>
+  </si>
+  <si>
+    <t>Dekanımız Prof. Dr. Semiyha TUNCEL ve Dekan Yardımcımız Prof. Dr. Hakan SUNAY hocalarımıza taktim etiler.
+Değerli antrenörümüzü ve oyuncularımızı yürekten kutluyoruz!👏💐
+ankaraüniversitesi</t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi Rektörlüğü ile Ankara İl Millî Eğitim Müdürlüğü arasında “İş Birliği Protokolü” Ankara Üniversitesi Rektörü Sayın Prof. Dr.  ve Ankara İl Millî Eğitim Müdürümüz Sayın  tarafından imzalandı.</t>
+  </si>
+  <si>
+    <t>Fakültemiz öğretim üyelerinden Sayın Doç. Dr. Selen Demirtaş Zorbaz ve ekibinin  “1001-Spor Araştırmaları Çağrısı” kapsamında projesi destek almaya hak kazanmıştır. Kendisini ve ekibini başarılarından ötürü tebrik ederiz. 
+_Demirtas</t>
+  </si>
+  <si>
+    <t>31 Mart-3 Nisan tarihleri arasında Bursa Büyükşehir Belediye Spor tarafından düzenlenen 14 Yaş Tenis turnuvasında  öğrencimiz Naz DEMİR 2. olmuştur.
+Öğrencimizi tebrik ediyor, başarılarının devamını diliyoruz.</t>
+  </si>
+  <si>
+    <t>Milletlerarası İlmî Toplantı:  Asırlık İlim Ve İrfan Ocağı: “Nüvvâb”
+        _ms</t>
+  </si>
+  <si>
+    <t>göreve 🇹🇷🇹🇷🇹🇷
+  _aksener   _Davutoglu _Karamollaoglu       __POYRAZ</t>
+  </si>
+  <si>
+    <t>Bahar X Arasınavlar</t>
+  </si>
+  <si>
+    <t>cavusoglu Allah emeyinizi boş etmesin abim allah birlik beraberligimizi bozmasın Allah ezanlarımızı dindirmesin bayragımızı indirmesin abim durmak yok yola devam reisimizle sizlerle abim herzaman her yerde reisimizin sizlerin yanındayız emrindeyiz abim başkanım durmak yok yola devam başknm</t>
+  </si>
+  <si>
+    <t>cavusoglu   Vuk 359  için heryıl tekrar eden suç,tekyıla düşecek,bi suça Özel af düzenlemesi verilecek
+2 yıllık  izin adı altında verilen Ayrımcı düzenlemeler  kamu vicdanını kanatır.Herkes için olan bi an önce TBMMye gelmeli
+Ayrımcı yasa istemiyoruz
+Af ve uzlaşma istiyoruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tebrikler Hocam 🥳🥳🥳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tebrikler Hocam🌸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tebrikler hocam, başarılarınızın devamını dilerim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teşekkür ederiz Hocam 🙏🏻</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tebrikler, örnek bir yayın olmuş. Hayırlı olsun</t>
+  </si>
+  <si>
+    <t>Sonuç raporunu henüz yazdığımız BAP Araştırma projemizin ilk ürünü, Q1 değerinde bir makale oldu 🎉🎊 Öğrencilerim _'ın ve Eslem'in de emeklerine sağlık 🌸🌸</t>
+  </si>
+  <si>
+    <t>Hayat Erkanal – Armağan Erkanal Öktü Arkeoloji Burslarının 2022 Yılı Kazananları Açıklandı!  Başarılı öğrencilerimizi tebrik ederiz 🍀 _DtcfResmi    arkeoloji hayaterkanal armağanerkanal</t>
+  </si>
+  <si>
+    <t>Dekanımız Sn. Prof. Dr. Asuman Bozkır, Bolivya  Büyükelçisi ve "Bolivya  MAYOR DE SAN SİMON" Üniversitesi Rektörü ve beraberindeki heyeti tanımaktan ve ikili işbirliğimizin ilk adımına tanıklık etmekten büyük mennuniyet duyduğunu dile getirdi.</t>
+  </si>
+  <si>
+    <t>Dün Üniversitemiz ile Bolivya Mayor de San Simon Üniversitesi arasında imzalanan akademik iş birliği protokolü sonrasında, bugün  Bolivya  Büyükelçisi ve  "Bolivya  MAYOR DE SAN SİMON" Üniversitesi Rektörü ve beraberindeki heyetle birlikte Fakültemizi ziyaret etti.</t>
+  </si>
+  <si>
+    <t>Bolivya Heyeti’nin, Fakültemiz Anabilim Dalları Araştırma Laboratuvarları Ziyaretinden Kareler..</t>
+  </si>
+  <si>
+    <t>Bolivya Heyeti, daha sonra Merkez Laboratuvarı-2 ve Anabilim Dallarımız Araştırma Laboratuvarları’nda incelemelerde bulundu.</t>
+  </si>
+  <si>
+    <t>Bolivya Heyeti, Fakültemiz Müze Eczanesi ve İlaç Müzesini de ziyaret etti.</t>
+  </si>
+  <si>
+    <t>Bolivya Heyeti, daha sonra Fakültemiz Mesleki Beceri ve İletişim Laboratuvarı incelemelerde bulundu.</t>
+  </si>
+  <si>
+    <t>Bolivya Heyeti’nin Fakültemiz Merkez Laboratuvarı ziyaretinden kareler..</t>
+  </si>
+  <si>
+    <t>ile Bolivya Mayor de San Simon Üniversitesi arasında dün imzalanan akademik iş birliği protokolü sonrasında, bugün Bolivya Büyükelçisi ve "Bolivya MAYOR DE SAN SİMON" Üniversitesi Rektörü ve beraberindeki heyeti Fakültemizde misafir ettik.</t>
+  </si>
+  <si>
+    <t>👊Bir vize klasiği olan Kek ve meyve suyu ikramımızla ders çalışan öğrencilerimize vizelerde başarılar diledik. 
+AnkaraÜniversitesi</t>
+  </si>
+  <si>
+    <t>cavusoglu   Heryerde normalleşme varken, cezaevleri dopdolu, uyuz , verem covid yayılıyor, revire sıraları uzun! Sıcak su sorunu, faturalar ve kantin fiyatları vahşi, görüntülü arama çoğunda yok, varsa çok kalitesiz ‼️kısa görüşler, insan hakkın sınırlamar çok! AdilYargılanmadık AFistiyoruz</t>
+  </si>
+  <si>
+    <t>Tüm kurslarımız, üniversitemiz öğrencilerine açıktır.</t>
+  </si>
+  <si>
+    <t>Happily share that our last article about the cardiprotective role of extracellular vesicles iş published in Scientific reports
+Congrats to all authors !!! :)</t>
+  </si>
+  <si>
+    <t>Hukukun ve Adaletin Temsilcileri Olan Tüm Avukatlarımızın, AvukatlarGünü kutlu olsun...</t>
+  </si>
+  <si>
+    <t>Muhterem annemiz pandemi dolayısıyla eğitimimiz yarım kaldı. 1 milyon öğrencinin faydalanacağı ÖĞRENCİ AFFI için kıymetli desteklerinizi istirham ediyorum. Bu ramazanın yüzü suyu hürmetine sesimizi duyurun, n’olursunuz🙏🙏🙏</t>
+  </si>
+  <si>
+    <t>Demirtas Tebrikler Selen hocam. Sonuçlarını ben de şimdiden merak ediyorum.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -694,10 +1700,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -705,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -716,10 +1722,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -727,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -738,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -749,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -760,10 +1766,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -771,10 +1777,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -782,10 +1788,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -793,10 +1799,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -804,10 +1810,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -815,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -826,10 +1832,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -837,10 +1843,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -848,10 +1854,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -859,10 +1865,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -870,10 +1876,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -881,10 +1887,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -892,10 +1898,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -903,10 +1909,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -914,10 +1920,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -925,10 +1931,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -936,10 +1942,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -947,10 +1953,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -958,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -969,10 +1975,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -980,10 +1986,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -991,10 +1997,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1002,10 +2008,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1013,10 +2019,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1024,10 +2030,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1035,10 +2041,1429 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>239</v>
+      </c>
+      <c r="C139" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>240</v>
+      </c>
+      <c r="C140" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>242</v>
+      </c>
+      <c r="C142" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>222</v>
+      </c>
+      <c r="C144" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>244</v>
+      </c>
+      <c r="C147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>238</v>
+      </c>
+      <c r="C148" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>238</v>
+      </c>
+      <c r="C152" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>238</v>
+      </c>
+      <c r="C154" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>245</v>
+      </c>
+      <c r="C158" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>246</v>
+      </c>
+      <c r="C162" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>247</v>
+      </c>
+      <c r="C163" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/data/TwitterSentimentAnalysis.xlsx
+++ b/data/TwitterSentimentAnalysis.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,61 +459,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1517274236519337985</t>
+          <t>1518336832299220998</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>yarenyonett</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nisan  Cuma tarihli “Gayrimenkul Geliştirme Uzmanlığı Meslek Kuruluşları GY Derneği konulu seminerde GYD yönetimi ağırlanacaktır Etkinliğe canlı yayınımızdan katılabilirsiniz</t>
+          <t>Ankara Fizik</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1517258980573294592</t>
+          <t>1518336628368064514</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>yarenyonett</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MÜGAMKAS Göç Sertifika Programı devam ediyor AYILDIZ DÜZENSIZ GÖÇ VE GÖÇMEN KAÇAKÇILIĞI ZHEKMATARSA AFGAN MÜLTECİLER SCDOLANBAYIGAM MÜLTECİ SAHA ÇALIŞMALARI igamder</t>
+          <t xml:space="preserve">Ankara </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1517254085354954754</t>
+          <t>1518331100300517376</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>fatihbeyazkoyy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MÜGAMKAS Göç Sertifika Programı devam ediyor SÖZÇÜRÜMEZTOPLUMSAL BÜTÜNLEŞME VE TÜRKIYEDE ZORUNLU GÖÇ GÖZERİMPOLITIKA ARACI OLARAK GÖÇ ŞKAKÇAPARGÖÇ HAREKETLERI VE TÜRKIYE’DE ‘’KADIN MÜLTECILER’</t>
+          <t>Ankara A İlahiyat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,39 +525,39 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1517235620124442624</t>
+          <t>1518326896915886080</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>imraan756</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sinema Günleri’nin  Haftasında var A Beaful Mind  Nisan Cuma  Başvurular yarın sat ’da alınacaktır AnkaraÜniversitesi</t>
+          <t>chem en It’s about  ns</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1517215147168776193</t>
+          <t>1518326299214983173</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>goncatekdemir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Üniversitemiz Uluslararası Stratejik Araştırmalar Grubu Öğrenci Topluluğu USAG Türkiye Psikoloji Öğrencileri Topluluğu bir araya geldik Topluluklarımızla projeleri hakında istişarelerde bulunup desteklerimizi iletik AnkaraÜniversitesi</t>
+          <t>Ankara A sosyal hizmet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -569,39 +569,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1517202602286628874</t>
+          <t>1518321624533061632</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AlgBhc</t>
+          <t>DoganIlhan23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>açıkders sitesinde verdiğiniz halife bilgisi yanlıştır doğrusu Bağdat’ta Halife MuktedîBiemrilâh’ın oğlu Ebü’lKāsım Abdulah’a takdim etmiştir</t>
+          <t>Ankara A Hukuk</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1517199366406221824</t>
+          <t>1518320643300896768</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AlgBhc</t>
+          <t>Furaze_</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Merhaba bir çalışma bilgi almak üzere açık ders malzemeleri sayfanıza ulaştım Burada verdiğiniz bilginin yanlış olduğunu tespit etim Divanı Lügati Türk eserinin sunulduğu kişi bilgisi verilen ders notunda yanlış yazılmıştır Doğrusu oğlu Ebü’lKāsım Abdulah’tır</t>
+          <t>Ankara A İlahiyat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -613,171 +613,171 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1517163515127074818</t>
+          <t>1518319671472275457</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TurkiyeHaberiTR</t>
+          <t>isml__karakuss</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AOSB  ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+          <t>Ankara A  PDR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1517162084475174917</t>
+          <t>1518319303011012610</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>THR_CLeVeR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AOSB  ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+          <t>Ankara İlahiyat A İtiraf etmeliyim ki  yaşındaysanız aşıksanız hayat gerçekten güzel</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1517147569016631298</t>
+          <t>1518316884516651008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AnkaraTTO</t>
+          <t>bisidiim_mi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Akılı çözümleri CampTech Anka girişimcilerini yalnız bırakmayan Ana Sponsorumuz TURKSATa teşekürlerimizi sunarız</t>
+          <t>Ankara A  yaşında Bahçe bitkileri</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1517142019377799172</t>
+          <t>1518316473827172352</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>aliuzun2727</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Özbekistanın Jeoloji Maden Kaynakları Devlet Komitesi Jeoloji Bilimler Üniversitesi Arasında Mutabakat Zaptı İmzalandı unihaber</t>
+          <t>Ankara A sekiz  kamu yönetimi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1517131107359072256</t>
+          <t>1518316271099682819</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>Esra__Zeynep</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fakültemiz Dekan Yardımcısı Doç Dr Hidayet Süha Yüksel Öğretim Üyesi Doç Dr Nevin Gündüz tarafından Ankara Gölbaşı ilçesi Beden Eğitimi Öğretmenlerine ilk eğitimler verildi</t>
+          <t>Ankara A yaşında Beslenme Diyetetik</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1517121142154317824</t>
+          <t>1518315575939846151</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rasim2ran</t>
+          <t>ybadems</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Akşam çocuklar ders çalışırken </t>
+          <t>Ankara A İlahiyat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1517117555592290306</t>
+          <t>1518315365301985282</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>turksat</t>
+          <t>halilibo_e</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nitelikli genç nesiler yetiştirmeyi şiar edinen bir şirket olarak genç girişimcilerin iş fikirlerini geliştirmesine olanak tanıyan CampTechAnka’da sizlere destek olmaktan büyük memnuniyet duyduk Türksat imkanlarıyla gençlerin yanında en</t>
+          <t>Ankara A Dijital fabrika teknolojileri bölümü</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1517110536038662144</t>
+          <t>1518315060623552515</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>_cerenoloji_</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fakültemiz öğretim üyelerinden Profesörlüğe atanan Prof Dr Fırat AKÇA hocamıza atama belgesi Fakülte Dekanımız Prof Dr Semiyha TUNCEL hocamız tarafından takdim edildi Kendisini tebrik ediyor başarılarının devamını diliyoruz</t>
+          <t>Ankara A Gıda amp Kimya Mühendisliği</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -789,17 +789,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1517096729463640064</t>
+          <t>1518314373839790080</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>emre_erkoca</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">CUMHURBAŞKANI MÜSLÜMAN MISINIZ NEDEN KULAĞINIZI TIKIYOR SESİMİZİ NEDEN DUYMUYOR CUMHURBAŞKANI VE YANDAŞLARI SES VERİN EVDEN ATILIYORUM CUMHURBAŞKANI SEN VE AİLEN YANDAŞLARIN ZEVKİ SEFA SÜRERKEN BENİM AİLEM AC VE EVSİZ KALMAMIZA NEDEN YARDIM ETMİYORSUNUZ    </t>
+          <t>’de Bir haftanın sorusu milenyum çocukluğu yaşayanlara geliyor Gönderide görmüş olduğunuz Cedric kaç yaşındadır ️Soruyu beğen cevabı yorumlara okuduğun bölüm birlikte yaz Tişört kazanan  öğrencimizden ol AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -811,369 +811,369 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1517095433344061440</t>
+          <t>1518295584981102594</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>gkcegll</t>
+          <t>mulkiyemaliye</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tersten saysın</t>
+          <t>Mülkiye Maliye Topluluğu olarak Bursa Gezimizi gerçekleştirdik Bizlere ulaşım imkanı sağlayan Ankara Üniversitesi Sağlık Kültür Spor Daire Başkanlığına Rektörlüğümüze teşekür ederiz Ankara</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1517095182553997317</t>
+          <t>1518295204897374208</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DenizYa80571347</t>
+          <t>suskunkral5361</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MHP nin TEKLİFİNİKAPSAMİNİ İSTİYORUZ  yıl çözüm değildir DOSYA BAŞI OLARAK  yıl bir adli mahkumun kapsam dışı kalmasını istemiyoruz   kapsama alınmasını istiyoruz Yazici</t>
+          <t>Orda burda hava atacagınıza bır hata yapıp sızın telefon larınınızı satın alan kişilerin magdurıyetlerını giderin Gogle play olmadan hıc bır lazım olan program calısmıyor ıstekde bulunmamıza ragmen haylen duzen leme yok safsatalara inanıp sakın huaweı ye para vermeyin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1517092678063824897</t>
+          <t>1518292617099890689</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ibnisina_hst</t>
+          <t>cenkyigiter</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>İnsanlık tarihi kadar eski kadim mesleği icra eden sağlık hizmeti sunumunda önemli bir role sahip ebelerimizin “Ebeler Haftası kutlu olsun</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1517072114326593537</t>
+          <t>1518280667322363907</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29mustafaeser</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> programına dair  tarihli duyurusunu programa başvurunun son günü olan  tarihinde yayınlıyor Acele etmeseydiniz</t>
+          <t>Ankara Üniversitesi Rektörü Prof Dr Necdet Ünüvar İbni Sina Araştırma Uygulama Hastanesinde İncelemelerde Bulundu unihaber</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1517069437035237383</t>
+          <t>1518257045979516928</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>RoccuccioF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Perşembe de Gayrimenkul Geliştirme Yönetimi Bölümü Liselerle Buluşuyor başlıklı tanıtım etkinliği çevrimiçi olarak gerçekleştirilecektir Katılım Linki </t>
+          <t>Yanımda senden güzel anılar getiriyorum Teşekürler Grazie en Türkiye Ankara Eğitim Üniversite Experience</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1517044957009358849</t>
+          <t>1518252082209427461</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIAATweet</t>
+          <t>ankeczacilik</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">The BIA welcomed archaeology students in the English language programe at en yesterday for talks and a tour together with asoc prof </t>
+          <t>Bahar coşkusuyla geldi Müzik topluluğumuz ANEMÜT geride bıraktığımız hafta taş amfimizde harika bir konser verdi Yoğun katılımlı konserden görüntüler</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1516899642662961152</t>
+          <t>1518234931197091841</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TatiaMinaeva</t>
+          <t>genckartal03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>in the city of Mariupol remains up to  civilians including children There are also our warior heroes who defend their homeland and democracy around the world The Rusians do not give a gren coridor Only in your power to save our people by sea Help them please</t>
+          <t>Universite Sayın Vekilim  yıldır öğrenciafı bekliyoruz perişan olduk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1516880555295584256</t>
+          <t>1518224912900624384</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>necdetunuvar</t>
+          <t>HuaweiTurkiye</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Çok teşekür ediyoruz Sn Miletvekilim</t>
+          <t>Huawei ArGe Buluşması Ankara’da genç bilişim yeteneklerinden yoğun ilgi gördü HSD elçimizin sertifikasını aldığı etkinlikten öğrencilerimizin önemli kazanımlarla ayrılmalarını sağlayan paydaşlarımıza teşekür ederiz HuaweiArGeTürkiye ICTalentDEV</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1516876947577622530</t>
+          <t>1518200866565914624</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>yhankarauni</t>
+          <t>KutluayYuce</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>yedihilal iftarprogramı</t>
+          <t>Bir kedi giti önce Keşke kampüs kedilerinin genç yavruların aşıları VeterinerFakültesi öğrencileri tarafından sene yapılsada gözümüzün önünde can çekişip ölmeseler birer ikişer  alo gelen belediye ekiplerine teşekürler</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1516874752840941570</t>
+          <t>1518191487649001476</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>necdetunuvar</t>
+          <t>Bbilbo0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Çok teşekür ediyoruz Sn Miletvekilim</t>
+          <t>Universite Yılardır verdiğimiz emeklerimiz boşuna gitmesin başarısız değil mağdur öğrencileriz Mağdur gençleri küstürmeyin Tek isteğimiz güz döneminde okularımızda olmak ÖğrenciAfı</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1516871017460899840</t>
+          <t>1518186245574336512</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Feafnir</t>
+          <t>firat3890</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>madem cecelistsin say lan bütün ceceli şarkılarını</t>
+          <t>Universite Yılarımız heba oldu Şansızlığımıza son verin Bir şans bize verin Suç işlemedik yine AFEDİN ÖğrenciAfı</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1516870888699928576</t>
+          <t>1518172059557376002</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ephesoss</t>
+          <t>HuaweiTurkiye</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>olur olur ben zaten cecelistim</t>
+          <t>Ankara Üniversitesi iş birliğiyle gerçekleştirdiğimiz Huawei ArGe Buluşması ArGe Merkezi Direktör Yardımcımız Boran Demirciler’in konuşması gençlerin yoğun ilgisi hızıyla devam ediyor HuaweiArGeTürkiye ICTalentDEV</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1516870734840315910</t>
+          <t>1518165368304504834</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Feafnir</t>
+          <t>HuaweiTurkiye</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>mustafa ceceli gelir bize anca heyecan yapmamak lazım</t>
+          <t>Mamak Belediye Başkanı Yardımcısı Orhan Babucuya HDS Ankara Üniversitesi iş birliğiyle gerçekleştirdiğimiz Huawei ArGe Buluşması’na katılımı teşekür ederiz HuaweiArGeTürkiye ICTalentDEV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1516869512607502339</t>
+          <t>1518149876768559106</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ephesoss</t>
+          <t>HuaweiTurkiye</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>bizim bi bahar şenliği vardı sanırım bayramın arkasına</t>
+          <t>HSD Ankara Üniversitesi iş birliğiyle gerçekleştirdiğimiz Huawei ArGe Buluşması başladı HuaweiArGeTürkiye ICTalentDEV</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1516867930687950855</t>
+          <t>1518145828321386496</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mevz82</t>
+          <t>OgrenciiAFFI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Müstafi hekim istifa etiği kadro PDCde BOŞ istifa onayı kaldırılarak aynı kadroda İSTİFA CEZA SÜRESİ beklemeden çalışmaya başlayabilmeli Kadro açık hekim açık mevzuat kapalı Hastalar randevu bulamıyor Aciler mahşer alanı gibi Müstafi hekime  yıl ceza uzun</t>
+          <t>Universite Yılarımız heba oldu Şansızlığımıza son verin Bir şans bize verin Suç işlemedik yine AFEDİN ÖğrenciAfı</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1516867446413697024</t>
+          <t>1518139580792381442</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>sanayiailesi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bir canın dünyaya geldiğinde ilk aldığı nefeste yanında olan mücadele dolu günlerde büyük bir özveriyle çalışan ebelerimizin ebe adayı öğrencilerimizin EbelerHaftasını kutlarız DEKANLIK</t>
+          <t>NFT’nin Türkçesi NFT oldu – VİDEO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1516864129318928384</t>
+          <t>1518137227318108160</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AUEBF</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi “Meclis Bahçesi Çocuk Bahçesi  Nisan Bilim Şenliği” açılışına Eğitim Bilimleri Fakültesi öğrencileri katıldı</t>
+          <t>“Gençler Burslar” “Erasmus Bilgilendirme Atölyesi” Eğitim Programı sizleri bekliyor KSM Dikimevi  Nisan   Başvurular bugün sat ’da üzerinden alınacaktır AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1185,110 +1185,3256 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1516862374900285444</t>
+          <t>1518136057996402688</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>Efsane6284</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fakültemiz akademik idari personeli iftar programında bir araya geldi</t>
+          <t>Universite Döviz kurunun düşerek normale inmesi  kredi faiz oranlarının düşmesi  İkinci el araç fiyatları Gıda temizlik vs fiyatları Mazot Gübre İlaç Yem fiyatları Roket hızıyla artan fiyatların paraşüt hızıyla inmesi Çözümler bulunması dileğiyle</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1516855940326338568</t>
+          <t>1518125120124071937</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>apolatduzgun</t>
+          <t>alialpaslan_aa</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramı Haftası dolayısıyla Meclis Bahçesi Çocuk Bahçesi programları kapsamında ’miz tarafından açılan standları gezdik Rektör Sn a hocalarımıza öğrencilerimize teşekür ediyorum</t>
+          <t>YKS TERCİH yks yks yks ykstayfa sınıf ykstercih ykstercihleri ykstercih tercih tercih tercih tyt ayt tytayt ayt tytayt tytayt bilgisayarmühendisliği ankaraüniversitesi bilgisayar</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1516850417405202435</t>
+          <t>1518070922216972289</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>yusuffurkanozer</t>
+          <t>Senay6806</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vize sonuçlarım açıklanıyor yeni işim olacak üzücü teşekürler</t>
+          <t>Universite Aklı selim insan kendine soruyor eyt  ististamda   yaş sınırı adilmi tabiki değil    yaş geçinsin yanlış kul hakı karardan hükümet yetkililerimiz acilen vaz geçmeli kul hakı ağır haktır</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1516848342160003079</t>
+          <t>1518070758194532353</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ankeczacilik</t>
+          <t>Senay6806</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>“Meclis Bahçesi Çocuk Bahçesi” Programı kapsamında Rektörümüz ProfDr Rektör Yardımcılarımız atölyelerimizi ziyaret eti Programda öğretim elemanlarımız krem imalatı mikrorganizmalarla tanışma uçucu yağlar atölyeleri yerini aldı</t>
+          <t>Universite Aklı selim insan kendine soruyor eyt  ististamda   yaş sınırı adilmi tabiki değil    yaş geçinsin yanlış kul hakı karardan hükümet yetkililerimiz acilen vaz geçmeli kul hakı ağır haktır</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>1518054785685106693</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alo183Kurumsal</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Universite Merhaba TC Aile Sosyal Hizmetler Bakanlığı olarak size yardımcı olabilmemiz iletişim bilgilerinizi özel mesaj bizimle paylaşır mısınız</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1518051317993857024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>necdetunuvar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HaftanınÖzeti    Nisan  Nisan  en</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1518051169112891395</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>necdetunuvar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HaftanınÖzeti    Nisan  Nisan  en</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1518032445681152000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>kranzen45508028</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Universite Ücretli öğretmenler mağdur</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1518032362101223425</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>kranzen45508028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Universite Ücretli öğretmenler yılarını vermiş mağdur</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1518032301212512256</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>kranzen45508028</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor Bize yardım edin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1518032191594414080</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>kranzen45508028</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1518032160271310850</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>kranzen45508028</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1518032064846733321</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>kranzen45508028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1518025353490538497</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>etinDoa56474021</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Universite Sayın Vekilim sizden MÜLAKAT MAĞDURU ÖĞRETMENLER olarak BEKLENTİMİZ Olası ATAMADA MÜLAKAT MAĞDURİYETİ YAŞANMAMASI yetkilileri MİLİ EĞİTİM KOMİSYONU ÜYESİ olarak görüşmeniz EMEĞİMİZİ ÇALMASIN BİZ PUANLARI KOLAY ALMADIK</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1518013609577701377</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ouzz09767175</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Universite Yılarca devlete asgarî ücretin altında ücret alarak hizmet etmiş ücretli öğretmenler emeğin karşılığı olarak artık kadro müjdesini beklemekteyiz</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1517998514336407555</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>duman198321</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Universite Yılarca okuların açığını kapatan yüzlerce öğrenci yetiştirip gönülere dokunan dağ bayır gezip sınıfları boş bırakmayan emektar ücretli öğretmenler KADRO talep ediyor</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1517985384365498369</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>yascasmetu</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Universite Katılımlarınız teşekür ederiz Sayın Bakanım</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1517982673976934401</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SEVDAM_6363</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Universite YETER ARTIK YETERBİZİ  TL ENGELİ MAŞI İLE SÜRÜNDÜRMEKTEN VAZGEÇİNBİZİ GÜNDE  TL ENGELİ MAŞI İLE SÜRÜNDÜRMEKTEN VAZGEÇİNACİLEN ENGELİ MAŞI ASGARİ ÜCRET OLMALIOLMALI Kİ ENGELİ DİLENMESİNSÜRÜNMESİNİNSANCA YAŞAMAK ENGELİNİNDE HAKI DEĞİL MİSÜRÜNÜYORUZDİLENİYORUZ</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1517962880372690949</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Tıp Fakültesi Cebeci Araştırma Uygulama Hastanesinde Tedavi Gören Çocuklar  Nisan Ulusal Egemenlik Çocuk Bayramı’nı Renkli Etkinliklerle Kutladı unihaber</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1517962136714199040</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>meral_rahim</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Universite  bin ücretli öğretmen atamasında usulsüzlügü komisyon başkanı olarak bildiğiniz halde müdahale etmiyorsunuz  öğretmen size  yıldır yazıyor Boşuna yazıyoruz Lütfen haksızlığa göz yumayınız Oturduğunuz makamın hakını veriniz</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1517954800368947201</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>songulztrko</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Universite Mülakat sonuçlarının hızlıca açıklanmasını istiyoruz</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1517954642059141120</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>songulztrko</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Universite Kübra Hanım sesimizi duyun lütfen</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1517954406796378113</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>kubrayigitbasi</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ankara Miletvekilimiz Sn Universite Rektörlerimiz birlikte ’ın düzenlediği iftar programında hemşehrilerimizle buluştuk Rabim tutuğumuz oruçlarımızı dualarımızı kabul eylesin Hemşehrilerimize teşekür ediyorum</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1517947012641173507</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sinema Günleri’nde John Nash’in büyülü dünyasına konuk olduk ABeautifulMind AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1517945540654292992</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Enver60135277</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Universite  magdur ogretmenın durumunu bildiğiniz halde uc yıldır oturduğunuz makamda gormezden geldiniz bir uc yıl davalarla ugrastiriyorsunuz yazık gunah degılmıdır insanlara umutlarını kırdınız</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1517944260829585409</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Alo183Kurumsal</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Universite Merhaba TC Aile Sosyal Hizmetler Bakanlığı olarak size yardımcı olabilmemiz iletişim bilgilerinizi özel mesaj bizimle paylaşır mısınız</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1517943561630715912</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Enver60135277</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Universite Sistemde atama tercıh hakı bulunan  magdur ogretmenın hakını Alah sorar size bırgun uc yıldır haksızlığı yazıyoruz size sgk  prim günü eşitsizliği adılmıdır oturduğunuz makamın hakını verin sorunu cozun düğüm olmayın</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1517941705546379265</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AhmedBeydag</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Universite Erdem KPS Mülakat girdiğimiz TEDAŞın özeleştirilmesi sonrası Önce C statüsünde Şimdi BC içerikli statüde perişan oluyoruz Ünvan Kadro Haklarımızı iade edin aliyalcin</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1517939848644026368</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>YasarSosyal53</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Universite SAYIN MİLETVEKİLM  aydır miletvekilerine yazıyorum dahil  aydır gemi arıyorum yeterliliğim GEMİCİ ilkdefa cıkaçagım bin tl borçum var evladıma okul harçlığı veremez hale geldim ALAH RIZASI İÇİN DİKATE ALIN SAYĞILARIMLA    </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1517937429474328576</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4cbli</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Universite C İKEN Bye GEÇEMEYEN BİZ CBLİLERİN ZORUNLU EMEKLİLİK EK ÖDEME MAĞDURİYETİ GİDERİLMELİÜNVAN VE KIDEM HAKLARIMIZ İADE EDİLMELİ BUNLARIN ÇÖZÜMÜ KADRO DUR ADALET BEKLİYORUZ SY Erdem</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1517937237316538368</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>universitelisci</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Universite </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1517937110635921411</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>emrullahisler</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Aile Sosyal Hizmetler Bakan Yardımcımız Sayın DoçDr Universite Rektörlerimiz birlikte ’ın düzenlemiş olduğu iftar yemeğinde kıymetli hemşerilerimizle bir araya geldik Rabimbirlik beraberliğimizi daim etsin</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1517931458106736642</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MaxAttwood</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>chem en I cant se the lifetime of the trEPR signal Would you hapen to recal</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1517924583961206792</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>imraan756</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>chem en Yeah nice work done by our group</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1517913136891846662</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dekan Yardımcımız Doç Dr Hidayet Suha Yüksel kordinasyonunda etkinlikliklerde görev alan öğrencilerimize teşekür ediyoruz</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1517884912271036419</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesinde  Nisan Ulusal Egemenlik Çocuk Bayramı Dolayısıyla Rektör Koltuğuna Oturan İlkokul Öğrencisi Sosyal Etkinliklerin Sayısının Artırılması Talimatını Verdi unihaber</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1517865249025757184</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AnkuzefHaber</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>govtr Beğenmedik</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1517864390980157442</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AnkaraUni_en</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rectors Mesage on April th National Sovereignty and Childrens Day</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1517863780088176643</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AnkaraUni_en</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HapyAprilth</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1517857093755322369</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ank_nmyo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramımız Kutlu Olsun Nisan ayhanaydin</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1517837278693007360</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sbfmugam</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MÜGAM GÖÇ SERTİFİKA PROGRAMI tamamlandı Sonsuz teşekürler</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1517830090834468867</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Geliştirme Vakfı Özel Okuları  Nisan Ulusal Egemenlik Çocuk Bayramını Gerçekleştirilen Törenle Kutladı unihaber</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1517827710231490561</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AUEBF</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sevgili EBF öğrencilerimiz Öğrenci kongremizde iyi  bildiri seçilecek olup hediyelerimiz olacaktır Dinleyici olarak katılacak öğrencilerimize katılım belgesi verilecektir Bildiri özetlerinizi üzerinden bekliyoruz</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1517826101963366400</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>kaliteelcisi</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>UNV Univ</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1517820550894206976</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UQELAABencil</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ankarada konuşarak ingilizce öğrenmek ister misiniz gereksiz gramer yalın bir şekilde ister online ister evde çalışmalarımız vardır iletişim  ingilizce org</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1517795841397997568</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SebnemNYC</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>very nice and surprisingly fast resident Zahracım</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1517787540274749440</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TheHolySaint</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Doç Dr üçüncü tarafından görevinden uzaklaştırıldı Aklıma Tanpınar’ın Türkiye evlatlarına kendisinden başka bir şeyle meşgul olmak imkânını vermiyor cümlesi geldi Bırakın hocalar akademik konularına odaklansın</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1517766301594402817</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>aruberutou</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>angewchem LongLived ChargeTransfer State in Spiro Compact Electron DonorAceptor Dyads Based on PyromelitimideDerived Rhodamine Charge Transfer Dynamics and Electron Spin Polarization Yaglioglu en openaces…</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1517760586456739840</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>auubfgayrimenk1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramı kutlu olsun</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1517756055492702208</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CANLI YAYIN Çocuk İhmal İstismarına Multidisipliner Yaklaşım Sempozyumu</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1517750368003842048</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ZahraDhaoui</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Nice resident inded</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1517724210403102721</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NisanKutluOlsun</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1517648254472790025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sbfmugam</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MÜGAMKAS Göç Sertifika Programında son gün OUNUTULMAZ Diaspora Kavramı Yurtdışı Türkler HGÜLERCE Göçmen Bavulu Deneyimsel Öğrenme Metoduyla academy</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1517611941434384384</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PençeKilit operasyon bölgesinde şehit düşen Teğmen Bekir Can Kerek Uzm Çvş Kubilay Çon FıratKalkanı operasyonunda şehit olan Özel Harekat Polisi Aytaç Altınörse Alah’tan rahmet ailelerine miletimize başsağlığı dileriz</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1517601874899316737</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Rektörü Prof Dr Necdet Ünüvar Üniversite Yönetimi Veteriner Fakültesi Öğrencileriyle İftar Programında Buluştu unihaber</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1517601552860594176</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NİSAN Kutlu Olsun Öğrencilerimize unutamadıkları Nisan anılarını sorduk Bakalım cevaplar gelmiş AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1517592791634874369</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PençeKilit Operasyonunda hain teröristlerle çıkan çatışmada şehit düşen kahraman Piyade Uzman Çavuş Furkan Göke Alah’tan rahmet kederli ailesine silah arkadaşlarına başsağlığı dileriz Aziz Miletimizin başı sağolsun</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1517590494519480320</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ankuzef</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramımız kutlu olsun Nisan NisanKutluOlsun Atatürk</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1517580999424630785</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Bbestekaya</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ankara  tekerli bisiklet kulanamayanlar var onlara  tekerli olsa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1517574177057906690</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AnkaraUni_Fen</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Fen Fakültesi olarak Astronomi Fizik Bölümlerimizle TBM TÜBİTAK birlikte Gazi Meclisimizin bahçesinde düzenlediğimiz açılış programında Cumhurbaşkanımız Sn programa katılan çocuklarımızın sevincini paylaştı</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1517573894265266182</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rektörümüz öğrenci topluluklarımız bir araya geldi Rektörümüz topluluklarımızın yaptığı çalışmaları dinlerken ihtiyaç taleplerine kulak verdi AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1517572320705105920</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MaxAttwood</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>chem en Realy great paper How long did the trEPR signal last</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1517570803361005569</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AUEBF</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramı kutlu olsun</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1517564339066179585</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>angew_chem</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LongLived ChargeTransfer State in Spiro Compact Electron DonorAceptor Dyads Based on PyromelitimideDerived Rhodamine Charge Transfer Dynamics and Electron Spin Polarization Yaglioglu en openaces</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1517563645391261696</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Akyurt Belediyesi Arasında İlçedeki Tarımsal Faliyetlerin Niteliğinin Artırılmasına İlişkin Protokol İmzalandı unihaber</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1517556126165966848</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BThaberAnkara</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ankara Ün Rektörü Değerli DijitalTürkiye ndeki teknolojik gelişim hakında sohbet etik ailesi olarak teşekür ederiz Bugünden güzel bir not NFTnin Türkçe karşılığı tarafından Nitelikli Fikrî Tapu olarak açıklandı</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1517549247490662400</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>alican_1969</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Fakültemizde idari personelimize iftar yemeği verildi Başta Dekanımız Prof Dr a Dekan Yardımcılarımız Doç Dr Doç Dr önceki Fakülte Sekreterimiz a teşekür ederiz DtcfResmi</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1517547213970415617</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AU_DtcfResmi</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Fakültemizde idari personelimize iftar yemeği verildi Başta Dekanımız Prof Dr a Dekan Yardımcılarımız Doç Dr Doç Dr önceki Fakülte Sekreterimiz a teşekür ederiz DtcfResmi</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1517522526234157061</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ibnisina_hst</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Aradan  yıl geçmiş olsa bile çocuklar büyük bir heyecanla  ruhuyla özel günü kutluyor miletimizin sevincini paylaşıyoruz Egemenlik bila kaydu şart miletindir</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1517509167539494915</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Akademik İdari Personeline Yönelik Akademik Veri Yönetim Sistemi Hakında Bilgilendirme Toplantısı Gerçekleştirildi unihaber</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1517509026296344576</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AnkaraTTO</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bilim teknoloji yeşeren yarınların güçlü adımları çocuklarımızın  Nisan Ulusal Egemenlik Çocuk Bayramı Kutlu Olsun NisanUlusalEgemenlikveCocukBayramı NisanUlusalEgemenlikveÇocukBayramı NisanKutluOlsun</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1517507055636074497</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Rektörü Prof Dr Necdet Ünüvar Üniversite Yönetimi Öğrenci Toplulukları Temsilcileriyle Bir Araya Geldi unihaber</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1517490631777607681</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>au_tite</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PANEL ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1517490065299189760</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>au_tite</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>TİTE TBM Bahçesinde Fotoğraflarla Atatürk Çocuk Sergisinden kareler türkinkılaptarihienstitüsü</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1517489825187864576</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>au_tite</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TİTE TBM Bahçesinde Fotoğraflarla Atatürk Çocuk Sergisinden kareler türkinkılaptarihienstitüsü</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1517488644315099137</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>au_tite</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan  tarihlerinde düzenlediğimiz Türk İnkılap Tarihi Enstitüsünün Kuruluşunun  Yılında Mezunlarının Gözünden Türk İnkılabı Sempozyumundan kareler türkinkılaptarihienstitüsü</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1517488448780873729</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>au_tite</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan  tarihlerinde düzenlediğimiz Türk İnkılap Tarihi Enstitüsünün Kuruluşunun  Yılında Mezunlarının Gözünden Türk İnkılabı Sempozyumundan kareler türkinkılaptarihienstitüsü</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1517485783837556736</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SutAnkara</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramımız Kutlu Olsun AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1517483982098677762</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>NihatKocyigit</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Yılardır devletvakıf üniversitelerinde özel öğretim kurumlarda çalışan insanlar asıl meselenin hukuk tanımazlık mobing güvencesizlik olduğunu söylüyoruz Son örneği den Dostumuz Doç Dr Meltem Kayıran  işten çıkarıldı Yine yanındayız</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1517479920385114113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>NihatKocyigit</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Hukuk tanımamazlıkta sınırı olmayan bir üniversite gtgtgt Doç Dr Meltem Kayıran’ın ’üncü Mülkiye’yle ilişiği kesildi</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1517472137229000706</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>wisdom_au</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Fakültemizde düzenlediğimiz iftar şenliği programımızın organizasyonunda emeği geçen katılan herkese teşekür ediyoruz au en Ankara</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1517461678451052545</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramımız Kutlu Olsun</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1517442039671046144</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SebnemNYC</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>EarthDay selfie with the notsoslow resident of our Tandoğan campus Bugün Tandoğan kampüsümüzde karşıma çıkan kaplumbağa düşündüğümden hızlıydı selfie çekmesi zor oldu DunyaGunu investinourplanet gezegenimizeyatırımyap</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1517441803791867906</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ankara_Saglik</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Fakültemiz tarafından hazırlanacak olan “Sürdürülebilir Sağlıklı Toplumlar” Kitap Bölüm Yazarlığı Çağrısı</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1517441661793710080</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Türkiye Büyük Milet Meclisinin  kuruluş yıl dönümü Ulu Önder Gazi Mustafa Kemal Atatürk’ün çocuklara armağan etiği  Nisan Ulusal Egemenlik Çocuk Bayramımız kutlu olsun Nisan UlusalEgemenlik ÇocukBayramı</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1517441398949269504</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>turkuazgazetes1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Türkiye Büyük Milet Meclisi’nin Yasalığı isimli konferans düzenlendi</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1517441299267338247</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TurkiyeHaberiTR</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Türkiye Büyük Milet Meclisi’nin Yasalığı isimli konferans düzenlendi</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1517405182862233601</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>au_tite</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PANEL ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1517396970326867968</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>AnkaraUni_Fen</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramımız kutlu olsun ankarafen NisanUlusalEgemenlikveCocukBayramı NisandaAnıtkabire Nisan</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1517274236519337985</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>auubfgayrimenk1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan  Cuma tarihli “Gayrimenkul Geliştirme Uzmanlığı Meslek Kuruluşları GY Derneği konulu seminerde GYD yönetimi ağırlanacaktır Etkinliğe canlı yayınımızdan katılabilirsiniz</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1517258980573294592</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>sbfmugam</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MÜGAMKAS Göç Sertifika Programı devam ediyor AYILDIZ DÜZENSIZ GÖÇ VE GÖÇMEN KAÇAKÇILIĞI ZHEKMATARSA AFGAN MÜLTECİLER SCDOLANBAYIGAM MÜLTECİ SAHA ÇALIŞMALARI igamder</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1517254085354954754</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>sbfmugam</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>MÜGAMKAS Göç Sertifika Programı devam ediyor SÖZÇÜRÜMEZTOPLUMSAL BÜTÜNLEŞME VE TÜRKIYEDE ZORUNLU GÖÇ GÖZERİMPOLITIKA ARACI OLARAK GÖÇ ŞKAKÇAPARGÖÇ HAREKETLERI VE TÜRKIYE’DE ‘’KADIN MÜLTECILER’</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1517235620124442624</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sinema Günleri’nin  Haftasında var A Beaful Mind  Nisan Cuma  Başvurular yarın sat ’da alınacaktır AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1517215147168776193</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Üniversitemiz Uluslararası Stratejik Araştırmalar Grubu Öğrenci Topluluğu USAG Türkiye Psikoloji Öğrencileri Topluluğu bir araya geldik Topluluklarımızla projeleri hakında istişarelerde bulunup desteklerimizi iletik AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1517202602286628874</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AlgBhc</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>açıkders sitesinde verdiğiniz halife bilgisi yanlıştır doğrusu Bağdat’ta Halife MuktedîBiemrilâh’ın oğlu Ebü’lKāsım Abdulah’a takdim etmiştir</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1517199366406221824</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>AlgBhc</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Merhaba bir çalışma bilgi almak üzere açık ders malzemeleri sayfanıza ulaştım Burada verdiğiniz bilginin yanlış olduğunu tespit etim Divanı Lügati Türk eserinin sunulduğu kişi bilgisi verilen ders notunda yanlış yazılmıştır Doğrusu oğlu Ebü’lKāsım Abdulah’tır</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1517163515127074818</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TurkiyeHaberiTR</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AOSB  ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1517162084475174917</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>turkuazgazetes1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>AOSB  ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1517147569016631298</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>AnkaraTTO</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Akılı çözümleri CampTech Anka girişimcilerini yalnız bırakmayan Ana Sponsorumuz TURKSATa teşekürlerimizi sunarız</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1517142019377799172</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Özbekistanın Jeoloji Maden Kaynakları Devlet Komitesi Jeoloji Bilimler Üniversitesi Arasında Mutabakat Zaptı İmzalandı unihaber</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1517131107359072256</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Fakültemiz Dekan Yardımcısı Doç Dr Hidayet Süha Yüksel Öğretim Üyesi Doç Dr Nevin Gündüz tarafından Ankara Gölbaşı ilçesi Beden Eğitimi Öğretmenlerine ilk eğitimler verildi</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1517121142154317824</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>rasim2ran</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akşam çocuklar ders çalışırken </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1517117555592290306</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>turksat</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Nitelikli genç nesiler yetiştirmeyi şiar edinen bir şirket olarak genç girişimcilerin iş fikirlerini geliştirmesine olanak tanıyan CampTechAnka’da sizlere destek olmaktan büyük memnuniyet duyduk Türksat imkanlarıyla gençlerin yanında en</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1517110536038662144</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Fakültemiz öğretim üyelerinden Profesörlüğe atanan Prof Dr Fırat AKÇA hocamıza atama belgesi Fakülte Dekanımız Prof Dr Semiyha TUNCEL hocamız tarafından takdim edildi Kendisini tebrik ediyor başarılarının devamını diliyoruz</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1517096729463640064</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>emre_erkoca</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CUMHURBAŞKANI MÜSLÜMAN MISINIZ NEDEN KULAĞINIZI TIKIYOR SESİMİZİ NEDEN DUYMUYOR CUMHURBAŞKANI VE YANDAŞLARI SES VERİN EVDEN ATILIYORUM CUMHURBAŞKANI SEN VE AİLEN YANDAŞLARIN ZEVKİ SEFA SÜRERKEN BENİM AİLEM AC VE EVSİZ KALMAMIZA NEDEN YARDIM ETMİYORSUNUZ    </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1517095433344061440</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>gkcegll</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Tersten saysın</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1517095182553997317</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>DenizYa80571347</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MHP nin TEKLİFİNİKAPSAMİNİ İSTİYORUZ  yıl çözüm değildir DOSYA BAŞI OLARAK  yıl bir adli mahkumun kapsam dışı kalmasını istemiyoruz   kapsama alınmasını istiyoruz Yazici</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1517092678063824897</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ibnisina_hst</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>İnsanlık tarihi kadar eski kadim mesleği icra eden sağlık hizmeti sunumunda önemli bir role sahip ebelerimizin “Ebeler Haftası kutlu olsun</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1517072114326593537</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>29mustafaeser</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> programına dair  tarihli duyurusunu programa başvurunun son günü olan  tarihinde yayınlıyor Acele etmeseydiniz</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1517069437035237383</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>auubfgayrimenk1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Perşembe de Gayrimenkul Geliştirme Yönetimi Bölümü Liselerle Buluşuyor başlıklı tanıtım etkinliği çevrimiçi olarak gerçekleştirilecektir Katılım Linki </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1517044957009358849</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>BIAATweet</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The BIA welcomed archaeology students in the English language programe at en yesterday for talks and a tour together with asoc prof </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1516899642662961152</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TatiaMinaeva</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>in the city of Mariupol remains up to  civilians including children There are also our warior heroes who defend their homeland and democracy around the world The Rusians do not give a gren coridor Only in your power to save our people by sea Help them please</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1516880555295584256</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>necdetunuvar</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Çok teşekür ediyoruz Sn Miletvekilim</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1516876947577622530</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>yhankarauni</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>yedihilal iftarprogramı</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1516874752840941570</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>necdetunuvar</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Çok teşekür ediyoruz Sn Miletvekilim</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1516871017460899840</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Feafnir</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>madem cecelistsin say lan bütün ceceli şarkılarını</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1516870888699928576</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ephesoss</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>olur olur ben zaten cecelistim</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1516870734840315910</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Feafnir</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>mustafa ceceli gelir bize anca heyecan yapmamak lazım</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1516869512607502339</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ephesoss</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>bizim bi bahar şenliği vardı sanırım bayramın arkasına</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1516867930687950855</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>mevz82</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Müstafi hekim istifa etiği kadro PDCde BOŞ istifa onayı kaldırılarak aynı kadroda İSTİFA CEZA SÜRESİ beklemeden çalışmaya başlayabilmeli Kadro açık hekim açık mevzuat kapalı Hastalar randevu bulamıyor Aciler mahşer alanı gibi Müstafi hekime  yıl ceza uzun</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1516867446413697024</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Bir canın dünyaya geldiğinde ilk aldığı nefeste yanında olan mücadele dolu günlerde büyük bir özveriyle çalışan ebelerimizin ebe adayı öğrencilerimizin EbelerHaftasını kutlarız DEKANLIK</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1516864129318928384</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>AUEBF</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi “Meclis Bahçesi Çocuk Bahçesi  Nisan Bilim Şenliği” açılışına Eğitim Bilimleri Fakültesi öğrencileri katıldı</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1516862374900285444</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Fakültemiz akademik idari personeli iftar programında bir araya geldi</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1516855940326338568</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>apolatduzgun</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramı Haftası dolayısıyla Meclis Bahçesi Çocuk Bahçesi programları kapsamında ’miz tarafından açılan standları gezdik Rektör Sn a hocalarımıza öğrencilerimize teşekür ediyorum</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1516850417405202435</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>yusuffurkanozer</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Vize sonuçlarım açıklanıyor yeni işim olacak üzücü teşekürler</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1516848342160003079</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ankeczacilik</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>“Meclis Bahçesi Çocuk Bahçesi” Programı kapsamında Rektörümüz ProfDr Rektör Yardımcılarımız atölyelerimizi ziyaret eti Programda öğretim elemanlarımız krem imalatı mikrorganizmalarla tanışma uçucu yağlar atölyeleri yerini aldı</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
           <t>1516846952788508675</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>ankeczacilik</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>Öğretim elemanlarımız “Meclis Bahçesi Çocuk Bahçesi” Programı’nda  farklı disiplindeki atölye yer aldıDekanımız ProfDrAsuman Bozkır Dekan Yardımcılarımız atölyelerimizi ziyaret etiEmeği geçen öğretim elemanlarımıza teşekürlerimizi sunarız</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1516845006857904131</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sosyal Deney Üniversitemiz Öğrencilerine Kitap Sürprizleri DünyaKitapGünü KitapHediyeGünü bahanemiz oldu öğrencilerimize kitaplar hediye etik Devamı için SosyalDeney Kitap AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1516808524180955137</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ucakyapanadam</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Bu önemli kıymetli etkinlik benim aynı zamanda büyük gurur kaynağı Çünkü eşim konuşmacılardan biriydi Darısı nice başaralara avim</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1516792667576799233</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi TÜBİTAK İş Birliğiyle Düzenlenen “Meclis Bahçesi Çocuk Bahçesi  Nisan Bilim Şenliği”nin Açılışı Türkiye Büyük Milet Meclisi Ev Sahipliğinde Gerçekleştirildi unihaber</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1516791902661746692</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PazukGalina</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>They are the best of us They stand to the last for Mariupol They are heroes who daily perform a feat not only for Ukraine but for the entire civilized world Save them by the sea Do the imposible Only you can do it</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1516787952520728581</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Ankara yüzlerce bisikleti öğrencilerimizin kulanımına sundu unihaber</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1516787732617519105</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesi Çimento Endüstrisi İşverenleri Sendikası Arasında İş Birliği Protokolü İmzalandı unihaber</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1516779486544547843</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Kara92037720</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1516779367606718468</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>selvacam</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Ulusal Egemenlik Çocuk Bayramı Haftası dolayısıyla Meclis Bahçesi Çocuk Bahçesi programları kapsamında ’miz tarafından açılan standları gezdik Üniversitemiz rektörü hocalarımıza öğrencilerimize teşekür ediyoruz ️</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1516773012992933895</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Ankara_Saglik</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nisan Çocuklar Şenliği Haftası nedeniyle bahçesindeÇocuk Bilim Merkezi işbirliği düzenlenen “Meclis Bahçesi Çocuk Bahçesi” programında Fakültemizin bölümleriöğretim elemanlarımız öğrencilerimiz”Sağlıklı Yaşam Atölyesi”nde çocuklar buluştu</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1516772332324462595</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ankarahavadis</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ankara Üniversitesinde Ermeni Terörü Şehit Diplomatlarımız Konferansı Düzenlendi</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1516768821041942529</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Ankara_Saglik</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>bahçesinden gerçekleştirilen”Meclis Bahçesi Çocuk Bahçesi”programına Fakültemiz”Sağlıklı Yaşam Atölyesi”ile katılmıştırÇocukların yoğun ilgi gösterdiği atölyeyi ziyaret etmişlerdir</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1516748521378037761</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Bursa’da İnfaz Koruma Memurlarının otobüsünün geçişi sırasında gerçekleştirilen alçak terör saldırısı sonrası şehit olan Cengiz YİĞİTe Alahtan rahmet yaralılarımıza acil şifalar diliyoruz Miletimizin başı sağolsun</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1516742685356347399</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>AUZF</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Öğrenci Etkinlikleri Haftası  Mayıs  ÖğrenciKongresi SektörleBuluşmaveKariyerGünü CansuyuBayramı TarımÇevreveYaşamBilimleriŞenliği HATAR senelozkan</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>Sinirli</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1516742599138238467</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ankarasporbilim</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>TBMNisanEtkinlikleri kapsamında gerçekleştirilen “Meclis Bahçesi Çocuk Bahçesi” başlıklı programın açılışına katıldık</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1516739899206025217</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SKS_Ankara</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>“Şehrimi Tanıyorum” un  gezisinde kitapların diyarına Ata’nın mirasına yolculuk yapıyoruz Mili Kütüphane Atatürk Orman Çiftliği Atatürk Evi Başvurular Sat da AnkaraÜniversitesi</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1516723691559829505</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>AnkaraUni</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Kısa bir mola</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1516711739588591616</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ilefsocial</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Fotoğraf Video Fujifilm Ankara Workshop devam ediyor fotograf</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1516706956064473092</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>netlab_media</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Fotoğraf Video Fujifilm Ankara Workshop devam ediyor fotograf</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Üzgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1516699387094786051</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>AUEBF</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>“’ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye” konulu panel  Nisan  Pazartesi günü sat ’ Ankara Üniversitesi Avrupa Toplulukları Araştırma Ve Uygulama Merkezinde ATAUM gerçekleştirilecektir</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1516596011254403076</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ReyhanSarikaya4</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Ankara Bırakırlar güzel bir proje</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Korku</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1516581438862336009</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>sbfmugam</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>MÜGAMKAS Göç Sertifika Programının  günü konuşmacıları Prof Dr Ayhan Kaya Avrupadaki Türkiyedeki Popülizm Radikaleşme Marmara Belediyeleri Birliği GPM müdürü BŞener Belediyelerin Göç Süreç Yönetimleri</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>

--- a/data/TwitterSentimentAnalysis.xlsx
+++ b/data/TwitterSentimentAnalysis.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,83 +459,83 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1519035169222635521</t>
+          <t>1540288181744041985</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>mmkilicarslan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kadir Gecemiz mübarek olsun Bin aydan hayırlı olan kutlu vakit selametimize felahımıza birlik beraberliğimize vesile olsun KadirGecesi</t>
+          <t>Ankara</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1519034010655207424</t>
+          <t>1540274781421027328</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>MutevelliV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gençlik Spor Bakanlığı GSB Vizyon Kulübü Ankara Temsilcisi öğrencimiz Ceyda Eker Kültür Sanat Merkezimizde eğitim düzenledi “Uluslararası Burslar” “Erasmus Bilgilendirme Atölyesi” eğitimin başlıklarıydı AnkaraÜniversitesi</t>
+          <t>Grece den Michele geliyor yine</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1519033043389927424</t>
+          <t>1540269117621559301</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ankeczacilik</t>
+          <t>ankusamankusam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bugün Özel Aksaray Bahçeşehir Koleji ögrencileri Fakültemizi ziyarete geldi Tanıtım Komisyonu Müze Komisyonu üyesi öğretim elemanlarımız öğrenci arkadaşlarımıza bilgi verdi</t>
+          <t>ANKÜSAM urla Yerleşkemizdeki Restorasyon Konservasyon Labımızda çalışmalar devam ediyor limantepe anküsam izmir urla en</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1519017389136003074</t>
+          <t>1540260871435390979</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AnkaraTeknokent</t>
+          <t>AnkaraUni_Fen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Genel Müdürümüz SnGüray Değerli TürkiyeninİlkYeşilTeknokenti Ankara Üniversitesi Teknokentin görev faliyetleri iklim değişikliği konusunda yürütüğü çalışmalarla ilgili THabere açıklamalarda bulundu</t>
+          <t>mezuniyet ankarafen</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -547,39 +547,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1519004236574605312</t>
+          <t>1540234400679530496</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PDB_Bartin</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Üniversitelerde çalışan idari yöneticilere yönelik olarak “Üniversitelerde Etkili Yönetim”başlığı altında Öğretim Üyesi Hizmet İçi Eğitim Kordinatörü hocamızı günü misafir ediyoruz İlgi duyan herkesi çevrimiçi etkinliğimize bekleriz</t>
+          <t>Siyasal Bilgiler Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1518983354477076480</t>
+          <t>1540234324326465536</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>urotoday</t>
+          <t>ankusem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Neurotoxicities of novel nonsteroidal antiandrogens for ProstateCancer a systematic review and metanalysis BeyondTheAbstract with emre and on UroToday gt</t>
+          <t>Merkezimizce Türkiye Şeker Fabrikaları Anonim Şirketi Genel Müdürlüğü personeline yönelik “İş Analizleri Eğitimi” gerçekleştirilmektedir tbozkurt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -591,17 +591,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1518982158018392064</t>
+          <t>1540225439926460418</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ProfDrYGI</t>
+          <t>HDemirtasTR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>yılından beri yayın hayatında den beri SCIE indeksli Ankara Üniversitesi Veteriner Fakültesi Dergimiz Büyük emekler veren hocalarımıza saygılar</t>
+          <t>Fişleme  Temuz  rejiminde KaraListelere dönüştürüldü Ayıklama Damgalama İnfaz adımlarıyla Soykırım kulanıldı O fişlemeleri yapanlar Soykırım suçundan yargılanacak TCKya göre düşük cezaları AğırlaştırılmışMüebet BuBöyleGitmez</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -613,17 +613,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1518961158648119299</t>
+          <t>1540223942195044352</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>drnevzatozel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Veteriner Fakültesi Dergisine Editör Olarak Hizmet Verenlere Teşekür Belgeleri Plaketleri Gerçekleştirilen Törenle Takdim Edildi unihaber</t>
+          <t>AB Erasmus Projesi kapsamında  Haziran  Perşembe günü Ankara Üniversitesi Rektörlük Yıl Salonunda Yükseköğretimde Dijital Dönüşüm Kitlesel Açık Çevrimiçi Dersler MOC başlıklı seminer düzenlenecektir</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -635,39 +635,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1518960490659074050</t>
+          <t>1540222007744385024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emin65607405</t>
+          <t>NazanOzur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rakamlar doğru mudur yoksa gafil muhalifler rakamlarla oynamış mıdır</t>
+          <t xml:space="preserve"> Çalismalari ben gordum Ozenle dikatle temizliyorlar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1518953968470212608</t>
+          <t>1540062357812043778</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DrSuleymanBASA</t>
+          <t>kuvars61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Hukuk Fakültesinde Soykırım Yalanınına karşı AİHM’de Türk Zaferi konferansında değerli Abim ProfDr Necdet Basa’yı dinliyoruz soykırımyalanı</t>
+          <t>Ankara Helal kardeşim</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -679,29 +679,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1518939306651533321</t>
+          <t>1540059473389441024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AnkaraTeknokent</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Teknokent Teknoloji Transfer Ofisi Teknokent Yönetim Kurulu İftar yemeğinde Buluştu</t>
+          <t>Fakültemiz Beden Eğitimi Spor Öğretmenliği Bölümü Arş Gör Gizem CEYLAN hayatını SnKürşat ACAR birleştirmiştir Çiftimizi tebrik eder mutluluklar dileriz</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1518938311099924480</t>
+          <t>1540043793717727234</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -711,29 +711,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Milî Eğitim Bakanlığı Ankara Üniversitesi UNICEF İş Birliğiyle “Sosyal Duygusal Beceriler Çerçevesinde Karne Davranış Notlarının Değerlendirilmesi Projesi Açılış Çalıştayı” Düzenlendi unihaber</t>
+          <t>Ankara Üniversitesi Geliştirme Vakfı Okularında Mezuniyet Heyecanı ANKÜOkularındanMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1518931891226877954</t>
+          <t>1540043244981067776</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AnkaraTTO</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Teknokent Teknoloji Transfer Ofisi Teknokent Yönetim Kurulu İftar yemeğinde Buluştu</t>
+          <t>ANKÜ Okularımızın Anadolu Fen Lisesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz ANKÜOkularındanMezunOldum</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -745,39 +745,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1518920028162334720</t>
+          <t>1540039083145166851</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rektörümüzden İki Günlük Nahçıvan Ziyareti uni</t>
+          <t xml:space="preserve">GüzBahar’da Öğrencisiyle Yaz’ın personeliyle Ankara Üniversitesi’nde zaman sanat var Personelimiz kültürsanat kurslarıyla buluşuyor Kayıtlar  tarihinde KSMde alınacaktır Detaylı bilgi     </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1518916730462035968</t>
+          <t>1540037142591803399</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>mmkilicarslan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AOSB ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+          <t>İmplant bile anlatsak evelalah konuyu evirir çevirir Türk kültürüne getiririz Darüselam’da Neşet Ertaş’tan alıntı yaptık Severiz kültürümüzü tanıtmayı Ankara</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -789,39 +789,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1518902571875946496</t>
+          <t>1540006078976610307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tubagl320</t>
+          <t>psi_lola</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ankara A yaşında Bahçe Bitkileri</t>
+          <t>Bize şunun sözünü verip zamanı gelince ya kalabalık olurmalesef şansınıza küsün böyle oldu sizin mezuniyet yalan oldu özür dileriz ehehehe yan çizmicektiniz yazıklar olsun</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1518880012040028162</t>
+          <t>1540003304356323337</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mehmetuurbozku2</t>
+          <t>alican_1969</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>yüz yüze eğitime geçilene hocaların uzak eğitim su istimaliğine son vere kadar sayın CUMHURBAŞKANIMA sizlere hergün yazmaya devam edeceğim yazık yazık gençlerimize</t>
+          <t>Fakültemiz Farabi Fuayesi Mimar Sinan Heykelinin Koruma Onarım çalışmalarını yürüten Güzel Sanatlar Fakültesi Kültür Varlıkları Koruma Onarım Bölümü Öğretim Elemanları öğrencilerine teşekür ederiz</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -833,39 +833,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1518878480418717696</t>
+          <t>1539986264954490883</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mehmetuurbozku2</t>
+          <t>TCRODOSBK</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>insanlar Ankara otobüste üst üste seyahat ediyor ilkokulu lise öğrencileri yıldır yüz yüze eğitim alıyor üniversite hocaları hala uzaktan eğitim veriyor yazık değil mi çocuklarımıza LÜTFEN keyfi tutuma artık son verin</t>
+          <t xml:space="preserve"> after he was granted a Turkish pasport and sent to Turkey Today he is acompanied by Prof Neslihan Güney Karaman spouse Dr Ayça Ülker Erdem and Dr Özlem Kanat  diplomats</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1518862678281932802</t>
+          <t>1539982809170956290</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>TCRODOSBK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yönetmelik değişikliği Mili Emlak Denetmen Yardımcılığına başvuru şartları yeniden düzenlenerek fakültelerin gayrimenkul geliştirme yönetimi bölümlerinden mezun olanlara Mili Emlak Denetmeni olma yolu açıldı kurum</t>
+          <t>AÜ Eğit Bilm Fak Dekan Yrd Prof Dr Neslihan Karaman’a değerli eşine Dr Ayça Ülker’e Dr Özlem Kanat’a teşekür ediyor vesileyle kahraman Konsolosumuz Selahatin Ülkümen’i bir minet rahmetle anıyoruz diplomats</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -877,17 +877,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1518849834819723264</t>
+          <t>1539982414902173698</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>TCRODOSBK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dünya Fikri Mülkiyet Günü Kutlu Olsun Yaratıcı gençlik yenilikçi ekonomi DünyaFikriMülkiyetGünü</t>
+          <t>Türk pasaportu tanzim edilerek Nazi yönetiminden kurtarılan Türkiye’ye gönderilen Musevi asılı  kişiden biriydi Prof Turiel’e anlamlı ziyareti sırasında kendisine eşlik eden  diplomats</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -899,259 +899,259 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1518713575866515458</t>
+          <t>1539979120679047169</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AnkaraTTO</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bu yıl onuncusu düzenlenecek olan TechAnkara Proje Pazarı proje başvuruları açıldı Girişimci başvuruları son gün Mayıs ’ dur Başvuru Linki</t>
+          <t>Hareket Et Öğren Keşfet Tüm sporseverler sporcularımızın  Haziran Dünya OlimpikGünü kutlu olsun Olimpiyat Oyunlarına katılacak olan sporcularımıza başarılar dileriz Olimpiyat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1518709269973155843</t>
+          <t>1539973098526519301</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MÜGAM Direktörü Prof Dr M Murat Erdoğan Türkiyedeki mülteciler konusunu Serbestiyete değerlendirdi</t>
+          <t>Aytemiz Alanyaspor Kulübü futbolcuları Efkan Bekiroğlu Erencan Yardımcı fakültemizi ziyaret etiler</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1518708110919090178</t>
+          <t>1539970248899584000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>auubfgayrimenk1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MÜGAM Direktörü Prof Dr M Murat Erdoğan Türkiyedeki mülteciler konusunun siyasalaşma sürecini Perspektife değerlendirdi</t>
+          <t>Gayrimenkul Geliştirme Yön Böl  Mezuniyet Töreni Akreditasyon Tebrik Mesajları Congratulation Mesages of Acreditation for REDM Graduation Ceremony Europe</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1518706904171745280</t>
+          <t>1539946716568469504</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>yazarsky00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MÜGAM Direktörü Prof Dr M Murat Erdoğan mültecilerin geri dönüşü konusunu Habertürkte Afşin Yurdakulun programında değerlendirdi</t>
+          <t xml:space="preserve">  Ankara Üniversitesi Sağlık Bilimleri Fakültesi mezuniyet töreninden AnkaraUEniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1518687296056442880</t>
+          <t>1539934440457224194</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>Puslu_Kit_alar</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>“Şehrimi Tanıyorum” Gezisinde Beypazarı’na doğru uzanıyoruz Nisan Başvuru Nisan AnkaraÜniversitesi</t>
+          <t>BulentKent Universite Program online mi olacak</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1518686345367015430</t>
+          <t>1539929594891063302</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>etinDoa56474021</t>
+          <t>ankusamankusam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Universite Sayın Vekilim sizden MÜLAKAT MAĞDURU ÖĞRETMENLER olarak BEKLENTİMİZ Olası ATAMADA MÜLAKAT MAĞDURİYETİ YAŞANMAMASI yetkilileri MİLİ EĞİTİM KOMİSYONU ÜYESİ olarak görüşmeniz EMEĞİMİZİ ÇALMASIN BİZ PUANLARI KOLAY ALMADIK</t>
+          <t>ANKÜSAM olarak  Derece TAD birlikte gerçekleştirdiğimiz Ankara Üniversitesi BAP destekli Kiklad Tekneleri Canlandırma Projemizin örneklerinden birinin Ankara Üniversitesi Tandoğan Yerleşkemizde Piri Reis Meydanında sergilendiği biliyormuydunuz en cycladic</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1518641269525864448</t>
+          <t>1539908663867056128</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MuslumKorkmaz15</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Alah emeyinizi boş etmesin abim alah birlik beraberligimizi bozmasın Alah ezanlarımızı dindirmesin bayragımızı indirmesin abim durmak yok yola devam reisimizle sizlerle abim herzaman yerde reisimizin sizlerin yanındayız emrindeyiz abim başkanım durmak yok yola devam başknm</t>
+          <t>Diyarbakır Licede icra edilen EREN ABLUKA Operasyonunda yaşanan çatışma esnasında şehit olan JAsbKdÇvş Oğuzhan Arduç JUzmÇvş Turgut İçen’e Alah’tan rahmet ailelerine Aziz miletimize başsağlığı diliyoruz</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1518640570524180490</t>
+          <t>1539886308599992320</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>paydosnft</t>
+          <t>yoldassu</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ankara ortez protez</t>
+          <t>Yök destek bursunu zaman yatırmayı düşünüyorsunuz Okula ulaşmak asla mümkün olmuyor yök’ün ayın ’una kadar okulun hesabına yatırdığı burslar neredeyse ayın sonu gelmesine rağmen hala hesabımızda değil Bu sorumsuzluk yüzünden ekonomik sıkıntı yaşıyoruz</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1518637050991419392</t>
+          <t>1539880044675432448</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fakültemiz öğrencileri İstanbulda Geleneksel sporlar eğitmen eğitimine katıldılar</t>
+          <t>Ankara Kalkınma Ajansı tarafından  Yılı Güdümlü Destek Programı kapsamında destek almaya hak kazanan “Ankara’da İlk Sanal Herbaryum Merkezi Oluşturulması Güdümlü Projesi”nin imza töreni gerçekleştirildi Emeği geçen herkese teşekür ederiz</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1518617307077132288</t>
+          <t>1539879459213426688</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rektörümüzden İki Günlük Nahçıvan Ziyareti uni</t>
+          <t>Ankara Üniversitesi TeknokentTO ailesi olarak Algoritm Ankara gençlerine başarılar dileriz</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1518616392425213953</t>
+          <t>1539879093382139905</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hentbolda Şampiyon BeşiktaşHentbol Hentbol Süper Lig Sezonu Şampiyonu Beşiktaş Hentbol Takımını Tebrik Ediyoruz Fed</t>
+          <t>Kıymetli eğitmenlerimize Algoritm Ankara gençlerine açtıkları yeni ufuklar teşekürlerimizi sunarız</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1518615472375279616</t>
+          <t>1539878784089849856</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AOSB ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+          <t>ev sahipliğinde gerçekleşen işbaşı gezi gözlem etkinliğinde öğrencilerimizi ağırlamaktan büyük bir mutluluk duyduk</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1163,17 +1163,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1518612086607298560</t>
+          <t>1539739884113502209</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>AfamVe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Tarafından ’ten Günümüze Türk Ermeniİlişkileri Yol Ayrımından Normaleşmeye Başlıklı Panel Düzenlendi unihaber</t>
+          <t>nehirvarol ormanyangınları</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1185,105 +1185,105 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1518603991684366343</t>
+          <t>1539738929246912512</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kanal5TR</t>
+          <t>AfamVe</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ramazan Çocuklara Gençlere Ne Söyler Ankara Üniversitesi İlahiyat Fakültesi Dekan Yardımcısı Prof Dr İhsan Çapcıoğlu Moderatör’de Programın Tamamı Bursa Boğa camlıca Bursa Boğa camlıca</t>
+          <t>nehirvarol ormanyangınları</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1518591284633653249</t>
+          <t>1539719889753186305</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>sirkannnnn</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Türkiye Büyük Milet Meclisi’nin Yasalığı isimli konferans düzenlendi</t>
+          <t>DtcfResmi Emekleriniz bize katığınız tecrübeler bilgiler teşekür ederim hocam</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1518586548480057345</t>
+          <t>1539714739588194305</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nidaa4321</t>
+          <t>maddog_maddog</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ankara Cevap A sekiz Bölümüm İngiliz Dili Edebiyatı</t>
+          <t xml:space="preserve">veteriner hasan bilgili nitelikli cinsel saldırı suçundan  yıl hapis cezası aldı adama ceza verdiniz </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1518585445373906944</t>
+          <t>1539706242385453063</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gocer_melis</t>
+          <t>VoVoWoWo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ankara kimya mühendisliği</t>
+          <t>Bugün Protohistorya Önasya Arkeolojisi Anabilim Dalı öğrencilerimizin mezuniyet töreni Ankara Üniversitesi Tandoğan Yerleşkesindeydik Hayatlarının yeni döneminde herşey istedikleri olsun DtcfResmi arkeoloji archaeology</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1518576381436776450</t>
+          <t>1539704264855011329</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ibnisina_hst</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rektörümüz Sn Prof Dr Necdet ÜNÜVAR İbni Sina Hastanemizde Ameliyathane inşatı Poliklinikler Çamaşırhane Sterilizasyon Ünitesi Mutfak Akademik Yerleşke yeni inşa edilmekte olan Yaşlı Sağlığı Merkezinde incelemelerde bulundu</t>
+          <t>Ankara Üniversitesi Dil TarihCoğrafya Fakültesinde Mezuniyet Coşkusu AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1295,39 +1295,39 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1518569594973261824</t>
+          <t>1539703782623395844</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ornlcansu</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ankara A Sekiz Beden Eğitimi Spor Öğretmenliği</t>
+          <t>Sağlık Bilimleri Fakültesi Mezunları Sağlık Ordusunun Neferleri Arasına Katıldı AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1518565907991257088</t>
+          <t>1539694537777549312</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUEBF</t>
+          <t>TurkiyeHaberiTR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fakültemiz Türk İnkılap Tarihi Enstitüsü işbirliğinde “’ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye” konulu panel tarihinde gerçekleştirildi</t>
+          <t>Hukuk Fakültemiz Türk adalet sistemine nitelikli mezunlar kazandırıyor Univ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1339,29 +1339,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1518560070610653185</t>
+          <t>1539694131118841861</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cankayagov</t>
+          <t>turkuazgazetes1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi İletişim Fakültesi Dekanı Prof Dr Abdulrezak Altun Dekan Yardımcısı Dr Ergin Şafak Dikmen Halkla İlişkiler Tanıtım Bölümü Başkanı Prof Dr Fatih Keskin Kaymakamımız nezaket ziyaretinde bulundular</t>
+          <t>Hukuk Fakültemiz Türk adalet sistemine nitelikli mezunlar kazandırıyor Univ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1518554707282833408</t>
+          <t>1539684804219883526</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1371,51 +1371,51 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MATHCOM Topluluğumuz bir araya geldik Topluluğumuzun fikir projelerine desteklerimizi iletik AnkaraÜniversitesi</t>
+          <t>Ankara Üniversiteliler bir günlüğüne olsa şehirden uzaklaşıp Haymana Çiftliğinde doğayı köy hayatını keşfetmeye gidelim mi  Haziran Cumartesi Konaklamalı Gezi Başvurular yarın sat ’da üzerinden alınacaktır</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1518548978354331648</t>
+          <t>1539672744345931776</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALTINEGITIM</t>
+          <t>SerkanKayalar_</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>güzelsanatlarlisesi müzik bölümü öğrenci lerimiz Devlet Konservatuvarını ziyaret etiler Öğretim görevlileri öğrencileriyle zaman geçiren öğrencilerimizin güzide kurumda eğitim hayatlarına devam etmelerini umuyor yakın ilgileri teşekür ediyoruz</t>
+          <t>Bugün mezunu olmaktan zaman gurur duyduğumuz Ankara Üniversitesi Dil Tarih Coğrafya Fakültemizin DtcfResmi  Kuruluş yıl dönümünde mezuniyet törenine katıldık Ayrıca mezunu olduğum Antropoloji bölümü öğrencilerinin diploma sevinçlerine ortak olduk</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1518546145341059072</t>
+          <t>1539646308281114628</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MugeMusti</t>
+          <t>omerorkun</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ankara çocuk gelişimi</t>
+          <t>Sumer schol ⁦⁩</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1427,39 +1427,39 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1518541924730347520</t>
+          <t>1539639309535481864</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>semseddinylcn</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gayrimenkul Sektör Seminerleri Kapsamında “Gayrimenkul Geliştirme Uzmanlığı Meslek Kuruluşları Gayrimenkul Geliştirme Yönetimi Derneği” Konulu Seminer Gerçekleştirildi Detaylar web sitemizi ziyaret edebilirsiniz</t>
+          <t xml:space="preserve"> Sağlık Bilimleri Fakültesi mezunları programına katıldık Birlikte çalışmayı umduğumuz Sosyal Hizmetler Çocuk Gelişimi Hemşirelik bölümlerden mezun olan öğrencilerimizi tebrik ediyor kendilerine başarılar diliyorum</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1518534314622959616</t>
+          <t>1539637988694564864</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gen4Olive</t>
+          <t>mmkilicarslan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FOD Ricerca</t>
+          <t>Hafta başı başladığımız Tanzanya eğitimlerimizi yarın başarıyla tamamlıyoruz İnşalah uni</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1471,61 +1471,61 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1518523875893645313</t>
+          <t>1539636783868018689</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BizimAnkara</t>
+          <t>kedisever62</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ABden Tedavi Gören Çocuklara Eğitim Desteği MansurYavaş ankara BizimAnkara Universite</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1518521272644292615</t>
+          <t>1539628694926491652</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EBE yaş çocuk bakım gelişimini izler özelikle gebe yaş çocuk aşıları olmak üzere bulaşıcı hastalıkların kontrol programlarında bağışıklama hizmetlerinde görev alır Bu yüzden yenidoğana süt çocuğu servislerine ebe alımı olmalıdır</t>
+          <t>Dil TarihCoğrafya Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1518521170857017346</t>
+          <t>1539617519790596096</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>Alicante06</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EBE Doğum sonrası dönemde yeni doğanın ilk bakım muayenesini yapar gerektiğinde acil resüsitasyon gerçekleştirir aneye emzirme eğitimi veriranenin bakım izlemini yaparnormalden sapmaları tespit ederek sevk ederÜNİVERSİTE HASTANELERİNDEKİ EBE SAYISI ARTIRILMALIDIR</t>
+          <t>Fotoğraflar DTCFdeki lisans yüksek lisans hayatımın ürünü objektifimden Dtcf dilvetarihcoğrafyafakültesi Atatürk ankarauni au ankaraüniversitesi ankarauniversity brunotaut haziran mimarsinan sihiye ankara Atatürk HayataEnHakikiMürşitİlimdir</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1537,193 +1537,193 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1518521111574626305</t>
+          <t>1539603867310194693</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>ankarabme</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>kadro değil ebelik alanına yeterli sayıda kadro açılmalıdır</t>
+          <t>Törene Rektör Vekili Sn Rektör yardımcıları Dekanlar Öğretim üyeleri Öğrencilerimizin aileleri katıldı Tüm mezunlarımızı tebrik eder bundan sonraki hayatlarında başarılarının devamını dileriz Muh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1518521059443720194</t>
+          <t>1539601982197059584</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>AfamVe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ebeler Haftasında ebelerin önemi değinilmelidir</t>
+          <t>Orman Yangınları nehirvarol</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1518520878388199424</t>
+          <t>1539597871175143428</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>AhmetSonerKARA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gebelikte anebebek açısından risk oluşturan durum riskli gebelik olarak adlandırılmaktadır Riskli gebelikler doğum bilgisi derslerinde ebelere öğretilmektedir Riskli gebeliklerde risk faktörleri belirtiler teşhis tedavi bakım izlemde EBELER büyük rol oynamaktadır</t>
+          <t>Çok şükür ilk göz ağrımızı Beslenme Diyetetik Uzmanı olarak mezun etik Başlasın hayat yolu bahtı açık olsun danışanları olsun inşalah</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1518520819231731712</t>
+          <t>1539595792687792130</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Üniversite hastanelerinde riskli gebelik vakası fazla Riskli gebeliklerde ebelik bakımının büyük rolü vardır</t>
+          <t>Dil TarihCoğrafya Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1518520750868680707</t>
+          <t>1539595668301422594</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>AUZF</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>bir meslek grubunu hedef almıyoruzanlatmaya çalıştığımz durum farklıVideoda geçen olayın yaşanma riski üniversite hastanelerinde yüksek üniversite hastaneleri ebe alımı yapmıyorEBE ALIMI YAPIN EBELERE GEREKEN ÖNEMİ VERİN</t>
+          <t xml:space="preserve"> Akademik Yılı Mezuniyet Törenimizi Gerçekleştirdik HATAR</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1518520022985060352</t>
+          <t>1539590617461915651</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pandemi sürecinde ülkemizdeki sayıda ebe COVID vakalarının tespiti ilaç temini acil vaka yönetimi kurulan filyasyon ekiplerinde yoğun bakımlarda COVID servislerinde acil servislerde görev alıyor Ebelere gereken önemi verin alımı artırın</t>
+          <t xml:space="preserve"> Haziran  Temuz tarihleri arasında Cezayir’in Oran şehrinde düzenlenecek olan AkdenizOyunları’nda ülkemizi temsil etmek bugün yola çıkan mili sporcularımıza başarılar dileriz Oran TeamTürkiye</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1518519702431178754</t>
+          <t>1539590357696102401</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ÜNİVERSİTE HASTANENİZDE DAHA ÇOK EBE GÖRMEK İSTİYORUZ Ebe alımına zaman yerde ihtiyaç vardır</t>
+          <t>Geçmiş Olsun Marmaris Yangından etkilenen vatandaşlarımıza geçmiş olsun dileklerimizi iletiyor yangının kontrol altına alınması temenisi söndürme çalışmalarında büyük gayret gösteren fedakâr kahramanlarımıza kolaylıklar diliyoruz</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1518519616129183745</t>
+          <t>1539576965467889664</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>ih_sezgin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Üniversite hastanelerindeki ebe sayıları artırılmalıdır Doğumhane Jinekoloji obstetri kadın doğum polikliniklerinde çocuk servislerinde ebe görmek istiyoruz</t>
+          <t>konakci Dini değerleri aşağılayanlarla ilgili hasasiyetinize eyvalah Ama Kur’an dalga geçen bakara makara diyenlere bir kelam etiğinizi duymadık Din samimiyetir</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1518519495442247680</t>
+          <t>1539550220689846272</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sagliksizinicin</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>birçok üniversite hastanesinde ebelerin çalışma alanlarında hemşirelerin çalıştırıldığını görüyoruzEbeler girişimsel anlamda kadın doğum konusunda fazla eğitim görmektedir Üniversite hastaneleri EBE alımını artırmalıdır</t>
+          <t>Sağlık Bilimleri Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1735,61 +1735,61 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1518519237484158976</t>
+          <t>1539549149728759809</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>BounLifeSci</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bahar Dönemi Gayrimenkul Geliştirme Yönetimi ABD Arazi Yönetimi Politikası ABD Final Takvimi öğrencilerimize mail atılmıştır Başarılar dileriz</t>
+          <t>Cumhurbaşkanlığı Gıda Sağlık Politikaları Kurulu Üyesi amp Rektörü Prof Dr Kök Hücre Enstitüsü Müdür Yardımcısı Prof Dr yı Boğaziçi Üniversitesi Kandili Derin Teknoloji Üsümüzde ağırlamaktan mutluluk duyduk</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1518502243833905152</t>
+          <t>1539516255937474560</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ankeczacilik</t>
+          <t>AUTFakultesi</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tiyatro Topluluğumuz ANETİT uzun bir aradan sonra yepyeni bir oyun seyirci karşısına çıkmanın heyecanını taşıyor Ankara</t>
+          <t>Onlar artık mezun Bu güzel Ama morfodaki eski mezuniyetler bir başka değil miydi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1518493201019150338</t>
+          <t>1539514071682359296</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>AUZF</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Üniversitemizde Bahar çiçeklerin vat etiği renkte olacak AnkaraÜniversitesi</t>
+          <t>Ankara Üniversitesi Zirat Fakültesi  Mezunlar Buluşması Haziran HATAR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1801,479 +1801,474 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1518481432674508802</t>
+          <t>1539513116836388871</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HuaweiTurkiye</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Merhaba teknik destek şikayet görüş önerilerin ilgili sayfasından özel mesaj yoluyla destek alabilirsin</t>
+          <t>Sağlık Bilimleri Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1518401243026235392</t>
+          <t>1539510468792000513</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>elel_eng</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ankara A Sekiz Elektrik Elektronik Mühendisliği</t>
+          <t>Türkiyenin İlk Zirat Fakültesi Mezunlarını Uğurladı AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1518394914421284864</t>
+          <t>1539485208113815552</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EKDERSL4</t>
+          <t>07erdemcan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Universite Sayın bakanım lütfen sesimizi duyun</t>
+          <t>Teşekür ederim</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1518392980775882752</t>
+          <t>1539397307833139200</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>etinDoa56474021</t>
+          <t>oytunsenel</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Universite Sayın Vekilim sizden MÜLAKAT MAĞDURU ÖĞRETMENLER olarak BEKLENTİMİZ Olası ATAMADA MÜLAKAT MAĞDURİYETİ YAŞANMAMASI yetkilileri MİLİ EĞİTİM KOMİSYONU ÜYESİ olarak görüşmeniz EMEĞİMİZİ ÇALMASIN BİZ PUANLARI KOLAY ALMADIK</t>
+          <t>AÜVF Hayvan Hastanesinin resmi internet sitesi olan adresi üzerinden birimlerin randevu seçeneklerine erişebilirsiniz</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1518383041764282370</t>
+          <t>1539358255763398656</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>JHCnews</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mayıs tarihleri arasında Fakültemiz tarafından Kariyer Günleri düzenlenmektedir Detaylı bilgiye aşağıdaki bağlantıdan ulaşabilirsiniz</t>
+          <t>New in JHC Researchers from and publish “Intracelular Redistribution of Left Ventricular Conexin  Contributes to the Remodeling of Electrical Properties of the Heart in Insulinresistant Elderly Rats” arhythmia aging</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1518364476210307073</t>
+          <t>1539334259013521410</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>oldsoulhamster</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ankara yaşında İngiliz Dili Edebiyatı</t>
+          <t>Dünya Kupası Finalinde ülkemizi temsil edecek mezun öğrencimiz mili pentatletimiz İlke Özyüksele finalde başarılar diliyoruz…</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1518336832299220998</t>
+          <t>1539332466665734144</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>yarenyonett</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ankara Fizik</t>
+          <t>Avrupa B Ligi Şampiyonası finalinde Letonya karşılaşan Tekerlekli Sandalye Basketbol Mili Takımımız rakibini  mağlup ederek Avrupa Şampiyonu oldu Mili sporcularımızı teknik ekibimizi kutluyoruz</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1518336628368064514</t>
+          <t>1539330404804702208</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>yarenyonett</t>
+          <t>recepsehitoglu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ankara</t>
+          <t>Çok şanslılar sizinle çalışma imkanı buldukları için Alah bahtlarını açık etsin</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1518331100300517376</t>
+          <t>1539325737836199938</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fatihbeyazkoyy</t>
+          <t>unlsefa1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ankara A İlahiyat</t>
+          <t>den mezun olmam başta anem olmak üzere emeği geçen herkese teşekür ederim İnşalah bundan sonra zirat mühendisi olarak vatanımıza miletimize dinimize hizmet etmeye devam edeceğim</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1518326896915886080</t>
+          <t>1539310828918231040</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>imraan756</t>
+          <t>TokerErguder</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chem It’s about ns</t>
+          <t>Universite ODTU</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1518326299214983173</t>
+          <t>1539290955551019010</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>goncatekdemir</t>
+          <t>zeyneppbaykara_</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ankara A sosyal hizmet</t>
+          <t>Sağ olun hocam</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1518321624533061632</t>
+          <t>1539290646464323584</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DoganIlhan23</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Ankara A Hukuk</t>
+          <t>alisinag</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1518320643300896768</t>
+          <t>1539290441799147520</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Furaze_</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ankara A İlahiyat</t>
+          <t>Süper Lig Kulüpler Birliği Vakfı Başkanlığına seçilen Spor Kulübü Başkanı Sn Ali Koçu tebrik ediyoruz Org</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1518319671472275457</t>
+          <t>1539290429321281536</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>isml__karakuss</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ankara A PDR</t>
+          <t>Zirat Fakültesi öğrencileri kepleri havaya atılar Güle güle topraktan “GÜNEŞ” doğuracak olanlar AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1518319303011012610</t>
+          <t>1539287206199713796</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>THR_CLeVeR</t>
+          <t>ibnisina_hst</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ankara İlahiyat A İtiraf etmeliyim yaşındaysanız aşıksanız hayat gerçekten güzel</t>
+          <t>Her birer Tıbiyeli Hikmet olan Tıbiyelilerimizin Cumhuriyetin ilk Tıp Fakültesi olan Ankara Üniversitesi Tıp Fakültesinden mezun olmalarının gurur mutluluğunu aileleriyle birlikte paylaştık</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1518316884516651008</t>
+          <t>1539284314969489409</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bisidiim_mi</t>
+          <t>AnkaraTeknokent</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ankara A yaşında Bahçe bitkileri</t>
+          <t>Ortak işbirliklerini görüşmek üzere Başkent OSB Firmalarından FAF Döküm Sanayi ziyaret edildi Teknokentimizde tasarım ofisi açılması ARGE projeleri hakında görüşme gerçekleştirildi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1518316473827172352</t>
+          <t>1539275447351095296</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>aliuzun2727</t>
+          <t>zeyneppbaykara_</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ankara A sekiz kamu yönetimi</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1518316271099682819</t>
+          <t>1539260231875760128</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Esra__Zeynep</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ankara A yaşında Beslenme Diyetetik</t>
+          <t>Zirat Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1518315575939846151</t>
+          <t>1539259474992562179</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ybadems</t>
+          <t>HokLabs</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ankara A İlahiyat</t>
+          <t>Cumhuriyetimizin ilk üniversitesi bir araştırma üniversitesi de yuvadan uçma günü Ankara BME ailesinin bireyini tebrik ediyorum graduationday Muh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1518315365301985282</t>
+          <t>1539253194030817281</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>halilibo_e</t>
+          <t>AnkaraTeknokent</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ankara A Dijital fabrika teknolojileri bölümü</t>
+          <t>TUS Hazırlık uygulaması TUS Budy eğitimyazılım sektöründe faliyet gösteren Teknokent firmalarımızdan Proders işbirliği sözleşmesi imzalandı Sözleşmenin taraflara hayırlı olmasını diliyoruz</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1518315060623552515</t>
+          <t>1539248361232023554</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>_cerenoloji_</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ankara A Gıda amp Kimya Mühendisliği</t>
+          <t>Ankara Üniversitesi Mühendislik Fakültesinde Mezuniyet Sevinci AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1518314373839790080</t>
+          <t>1539248092188483585</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>AUZF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>’de Bir haftanın sorusu milenyum çocukluğu yaşayanlara geliyor Gönderide görmüş olduğunuz Cedric kaç yaşındadır ️Soruyu beğen cevabı yorumlara okuduğun bölüm birlikte yaz Tişört kazanan öğrencimizden ol AnkaraÜniversitesi</t>
+          <t xml:space="preserve"> Mezuniyet Törenimiz coşkusuyla devam ediyor ZiratMuhendisi Mezuniyet HATAR senelozkan</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2285,83 +2280,83 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1518295584981102594</t>
+          <t>1539229195691520002</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>mulkiyemaliye</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mülkiye Maliye Topluluğu olarak Bursa Gezimizi gerçekleştirdik Bizlere ulaşım imkanı sağlayan Ankara Üniversitesi Sağlık Kültür Spor Daire Başkanlığına Rektörlüğümüze teşekür ederiz Ankara</t>
+          <t>Zirat Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1518295204897374208</t>
+          <t>1539226709303640064</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>suskunkral5361</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Orda burda hava atacagınıza bır hata yapıp sızın telefon larınınızı satın alan kişilerin magdurıyetlerını giderin Gogle play olmadan hıc bır lazım olan program calısmıyor ıstekde bulunmamıza ragmen haylen duzen leme yok safsatalara inanıp sakın huaweı ye para vermeyin</t>
+          <t>Ankara Üniversiteliler buralarda mısınız İstanbul’a gidiyor muyuz  Temuz Cumartesi Boğaz Turu Tarihi Yarım Ada Karaköy nereler Başvurular  Haziran Çarşamba ’da üzerinden alınacaktır</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1518292617099890689</t>
+          <t>1539225499536326662</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cenkyigiter</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>TOnun paydaşlarından olduğu Algoritm Ankara Projesi kapsamında yürütülen İş Başı Gezi Gözlem etkinliğine kıymetli katkılarından dolayı Gölbaşı Belediyesine teşekür ederiz</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1518280667322363907</t>
+          <t>1539225047113531394</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>nursariipek</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Rektörü Prof Dr Necdet Ünüvar İbni Sina Araştırma Uygulama Hastanesinde İncelemelerde Bulundu unihaber</t>
+          <t>Yesterday I had my medical schol graduation ceremony I am eternaly grateful for the incredible six years with excelent teachers and amazing future coleagues So Dr Saripek it is en Clasof medschol MedTwiter</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2373,39 +2368,39 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1518252082209427461</t>
+          <t>1539223263154524161</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ankeczacilik</t>
+          <t>medyaankaracom</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bahar coşkusuyla geldi Müzik topluluğumuz ANEMÜT geride bıraktığımız hafta taş amfimizde harika bir konser verdi Yoğun katılımlı konserden görüntüler</t>
+          <t>Prof Dr Necdet Ünüvar “Rektör atandıktan sonra yaptığım önemli şey’ Röportaj Şehla Aslan</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1518234931197091841</t>
+          <t>1539207337440944128</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>genckartal03</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Universite Sayın Vekilim yıldır öğrenciafı bekliyoruz perişan olduk</t>
+          <t>Danışmanlık AŞ’nin kurucusu Sn Erdem Kaya Yazılımların Patentlenebilirliği Eğitiminde teydi Sayın Erdem Kayaya TeknokentTOya sağladığı kıymetli katkılarından dolayı teşekür ederiz</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2417,127 +2412,127 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1518224912900624384</t>
+          <t>1539199268904390659</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HuaweiTurkiye</t>
+          <t>ReyhanSarikaya4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Huawei ArGe Buluşması Ankara’da genç bilişim yeteneklerinden yoğun ilgi gördü HSD elçimizin sertifikasını aldığı etkinlikten öğrencilerimizin önemli kazanımlarla ayrılmalarını sağlayan paydaşlarımıza teşekür ederiz HuaweiArGeTürkiye ICTalentDEV</t>
+          <t>Ankara A beklemede</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1518200866565914624</t>
+          <t>1539160725544910850</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KutluayYuce</t>
+          <t>burkdincr</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bir kedi giti önce Keşke kampüs kedilerinin genç yavruların aşıları VeterinerFakültesi öğrencileri tarafından sene yapılsada gözümüzün önünde can çekişip ölmeseler birer ikişer alo gelen belediye ekiplerine teşekürler</t>
+          <t>senin Dünya müzik günün kutlu olsun darbukatör kardeşim benim</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1518191487649001476</t>
+          <t>1539159610686332928</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bbilbo0</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Universite Yılardır verdiğimiz emeklerimiz boşuna gitmesin başarısız değil mağdur öğrencileriz Mağdur gençleri küstürmeyin Tek isteğimiz güz döneminde okularımızda olmak ÖğrenciAfı</t>
+          <t xml:space="preserve"> Haziran Dünya Müzik Günü Kutlu Olsun DünyaMüzikGünü</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1518186245574336512</t>
+          <t>1539157249351987200</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>firat3890</t>
+          <t>ozuduru_bulent</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Universite Yılarımız heba oldu Şansızlığımıza son verin Bir şans bize verin Suç işlemedik yine AFEDİN ÖğrenciAfı</t>
+          <t>Alpar Fen aklinizi DEVLET SUÇLU OLDUĞU BARİZ OLAN HİÇ BİR KONUDA ARAŞTIRMA YAPILMASINA İZİN VERMİYOR A A O GÜNLER GELECEK</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1518172059557376002</t>
+          <t>1539150011929354240</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HuaweiTurkiye</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi iş birliğiyle gerçekleştirdiğimiz Huawei ArGe Buluşması ArGe Merkezi Direktör Yardımcımız Boran Demirciler’in konuşması gençlerin yoğun ilgisi hızıyla devam ediyor HuaweiArGeTürkiye ICTalentDEV</t>
+          <t>Mühendislik Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1518165368304504834</t>
+          <t>1539030680356720640</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HuaweiTurkiye</t>
+          <t>07erdemcan</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mamak Belediye Başkanı Yardımcısı Orhan Babucuya HDS Ankara Üniversitesi iş birliğiyle gerçekleştirdiğimiz Huawei ArGe Buluşması’na katılımı teşekür ederiz HuaweiArGeTürkiye ICTalentDEV</t>
+          <t>Hangi uygulama üzerinden randevu alınıyor acaba</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2549,17 +2544,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1518149876768559106</t>
+          <t>1538970288016314368</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HuaweiTurkiye</t>
+          <t>MuratSarayl</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HSD Ankara Üniversitesi iş birliğiyle gerçekleştirdiğimiz Huawei ArGe Buluşması başladı HuaweiArGeTürkiye ICTalentDEV</t>
+          <t>Doktor olsalardı pıryurtdışı İyi hakimler</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2571,39 +2566,39 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1518145828321386496</t>
+          <t>1538968851261665281</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>OgrenciiAFFI</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Universite Yılarımız heba oldu Şansızlığımıza son verin Bir şans bize verin Suç işlemedik yine AFEDİN ÖğrenciAfı</t>
+          <t>Ankara Üniversiteli  Genç Hekim Göreve Hazır AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1518139580792381442</t>
+          <t>1538960992234872834</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sanayiailesi</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NFT’nin Türkçesi NFT oldu – VİDEO</t>
+          <t>İnanır mısınız Ankara Üniversitesi’nde  yıl bile su akıp geçiyor Bir elveda sizlere Tıp Fakültesi mezunları AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2615,17 +2610,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1518137227318108160</t>
+          <t>1538950110205427712</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>“Gençler Burslar” “Erasmus Bilgilendirme Atölyesi” Eğitim Programı sizleri bekliyor KSM Dikimevi Nisan Başvurular bugün sat ’da üzerinden alınacaktır AnkaraÜniversitesi</t>
+          <t>Sporcularımızın yetişmesinde büyük emekleri olan sportif başarıların gizli kahramanları antrenörlerimizin  Haziran Antrenörler Günü kutlu olsun antrenörlergünü haziranantrenörlergünü antrenör antrenman</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2637,17 +2632,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1518136057996402688</t>
+          <t>1538948967219830789</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Efsane6284</t>
+          <t>onkodtr</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Universite Döviz kurunun düşerek normale inmesi kredi faiz oranlarının düşmesi İkinci el araç fiyatları Gıda temizlik vs fiyatları Mazot Gübre İlaç Yem fiyatları Roket hızıyla artan fiyatların paraşüt hızıyla inmesi Çözümler bulunması dileğiyle</t>
+          <t>In colaboration with Leiden and endorsed by and TR Abdominal Organ Procurement masterclas course for details</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2659,17 +2654,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1518125120124071937</t>
+          <t>1538948932868374534</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>alialpaslan_aa</t>
+          <t>onkodtr</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>YKS TERCİH yks yks yks ykstayfa sınıf ykstercih ykstercihleri ykstercih tercih tercih tercih tyt ayt tytayt ayt tytayt tytayt bilgisayarmühendisliği ankaraüniversitesi bilgisayar</t>
+          <t>Leiden işbirliği TR destekleriyle düzenlenecek olan Abdominal Organ Procurement masterclas kurs detayları adresini ziyaret edebilirsiniz</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2681,17 +2676,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1518070922216972289</t>
+          <t>1538948756179230727</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Senay6806</t>
+          <t>organnaklivakfi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Universite Aklı selim insan kendine soruyor eyt ististamda yaş sınırı adilmi tabiki değil yaş geçinsin yanlış kul hakı karardan hükümet yetkililerimiz acilen vaz geçmeli kul hakı ağır haktır</t>
+          <t>In colaboration with Leiden and endorsed by and TR Abdominal Organ Procurement masterclas course for details</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2703,149 +2698,149 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1518070758194532353</t>
+          <t>1538948644556136450</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Senay6806</t>
+          <t>organnaklivakfi</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Universite Aklı selim insan kendine soruyor eyt ististamda yaş sınırı adilmi tabiki değil yaş geçinsin yanlış kul hakı karardan hükümet yetkililerimiz acilen vaz geçmeli kul hakı ağır haktır</t>
+          <t>Leiden işbirliği TR destekleriyle düzenlenecek olan Abdominal Organ Procurement masterclas kurs detayları adresini ziyaret edebilirsiniz</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1518054785685106693</t>
+          <t>1538948568366587905</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Alo183Kurumsal</t>
+          <t>ITN_TR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Universite Merhaba TC Aile Sosyal Hizmetler Bakanlığı olarak size yardımcı olabilmemiz iletişim bilgilerinizi özel mesaj bizimle paylaşır mısınız</t>
+          <t>In colaboration with Leiden and endorsed by and TR Abdominal Organ Procurement masterclas course for details abdominal OrganProcurement masterclas</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1518051317993857024</t>
+          <t>1538935659045560320</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>necdetunuvar</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HaftanınÖzeti Nisan Nisan</t>
+          <t>Şili Büyükelçisi Castro’dan Rektör Ünüvar’a Ziyaret unihaber</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1518051169112891395</t>
+          <t>1538930441402691587</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>necdetunuvar</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HaftanınÖzeti Nisan Nisan</t>
+          <t>Tıp Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1518032445681152000</t>
+          <t>1538925356983504899</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>kranzen45508028</t>
+          <t>cankayagov</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Universite Ücretli öğretmenler mağdur</t>
+          <t>Ankara Üniversitesi İletişim Fakültesi Dekanı Prof Dr Abdulrezak Altun Halkla İlişkiler Tanıtım Bölümü Başkanı Prof Dr Fatih Keskin Kaymakamımız Murat Duruya hayırlı olsun ziyaretinde bulundular Nazik ziyaretleri teşekür ederiz</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1518032362101223425</t>
+          <t>1538907717271793664</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kranzen45508028</t>
+          <t>kedicidergisi</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Universite Ücretli öğretmenler yılarını vermiş mağdur</t>
+          <t>Yılda  Bin Can Ankara Üniversitesindeki Veteriner Hekimlerin Elerinde Şifa Buluyor</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1518032301212512256</t>
+          <t>1538898444756074498</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>kranzen45508028</t>
+          <t>ATOkurumsal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor Bize yardım edin</t>
+          <t xml:space="preserve">ATO Başkanı Zirat Fakültesi Dekanı Prof Dr Hasan Hüseyin Atar UK Group İcra Kurulu Başkanı Cihan Akyıldız ATO  No’lu MK Meclis Üyesi Tıbi Aromatik Bitki Koperatifi TabKop Başkanı Mert Ünyazıcı </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2857,39 +2852,39 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1518032191594414080</t>
+          <t>1538885438924005377</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>kranzen45508028</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor</t>
+          <t>Güncel Mezuniyet Takvimi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1518032160271310850</t>
+          <t>1538885299798949891</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>kranzen45508028</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor</t>
+          <t>Tıp Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2901,369 +2896,369 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1518032064846733321</t>
+          <t>1538867131177132034</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>kranzen45508028</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Universite Çok güç duruma düştük yasımız geçiyor Ne yapacağız hayatlarımız mahf olmuş Gelecek geçim kaygısı içindeyiz Ne olacak sonumuz Ücretli öğretmenler hakını istiyor</t>
+          <t>Ankara Üniversitesi Spor Bilimleri Fakültesi Mezunlarını Uğurladık AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1518025353490538497</t>
+          <t>1538865253517250561</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>etinDoa56474021</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Universite Sayın Vekilim sizden MÜLAKAT MAĞDURU ÖĞRETMENLER olarak BEKLENTİMİZ Olası ATAMADA MÜLAKAT MAĞDURİYETİ YAŞANMAMASI yetkilileri MİLİ EĞİTİM KOMİSYONU ÜYESİ olarak görüşmeniz EMEĞİMİZİ ÇALMASIN BİZ PUANLARI KOLAY ALMADIK</t>
+          <t>Fakültemiz  EğitimÖğretim yılı mezuniyet töreni Ankara Üniversitesi Güneş Meydanında gerçekleşti Mezun olan öğrencilerimize hayatlarında başarılar diliyoruz AnkaraÜniversitesindenMezunOldum ankaraüniversitesi</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1518013609577701377</t>
+          <t>1538857983915991041</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ouzz09767175</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Universite Yılarca devlete asgarî ücretin altında ücret alarak hizmet etmiş ücretli öğretmenler emeğin karşılığı olarak artık kadro müjdesini beklemekteyiz</t>
+          <t>İklim değişikliği mücadele kapsamında TÜBİTAK tarafından açılan  BİG Yeşil Büyüme çağrısı hakındaki sorularınıza cevap bulacağınız TÜBİTAK BİG ankaBİG Tanıtım Etkinliği  Haziran Satda online olarak gerçekleşecektir</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1517998514336407555</t>
+          <t>1538856500952809479</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>duman198321</t>
+          <t>ausagbilens</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Universite Yılarca okuların açığını kapatan yüzlerce öğrenci yetiştirip gönülere dokunan dağ bayır gezip sınıfları boş bırakmayan emektar ücretli öğretmenler KADRO talep ediyor</t>
+          <t>Ankara Üniversitesi Tezli Yüksek Lisans Mezuniyet Töreni’ne davetlisiniz  Haziran  Pazartesi  Ankara Üniversitesi Dışkapı Yerleşkesi Prof Dr Satı Baran Konferans Salonu</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1517985384365498369</t>
+          <t>1538852419802644487</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>yascasmetu</t>
+          <t>KrystinaSferlaz</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Universite Katılımlarınız teşekür ederiz Sayın Bakanım</t>
+          <t>verheyen tonti monika en Omg hopelijk hal je je vlucht</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1517982673976934401</t>
+          <t>1538848503660789761</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SEVDAM_6363</t>
+          <t>28cntrk</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Universite YETER ARTIK YETERBİZİ TL ENGELİ MAŞI İLE SÜRÜNDÜRMEKTEN VAZGEÇİNBİZİ GÜNDE TL ENGELİ MAŞI İLE SÜRÜNDÜRMEKTEN VAZGEÇİNACİLEN ENGELİ MAŞI ASGARİ ÜCRET OLMALIOLMALI Kİ ENGELİ DİLENMESİNSÜRÜNMESİNİNSANCA YAŞAMAK ENGELİNİNDE HAKI DEĞİL MİSÜRÜNÜYORUZDİLENİYORUZ</t>
+          <t>Alpar aklinizi Fen Bu işte bir terslik var sanki Böyle olaylarda esas devletin kurumları üstüne düşüp araştırıp sorumluların cezalandırılması takipçisi olmaz mıydı Yanlışım var</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1517962880372690949</t>
+          <t>1538846172785385472</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>Ali_Alpar</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Tıp Fakültesi Cebeci Araştırma Uygulama Hastanesinde Tedavi Gören Çocuklar Nisan Ulusal Egemenlik Çocuk Bayramı’nı Renkli Etkinliklerle Kutladı unihaber</t>
+          <t>Bu kazada ölen  kişi arasında eski rektör yardımcısı Fen öğretim üyesi değerli astronom meslektaşım Prof Berahitdin Albayrak vardı aklinizi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1517954800368947201</t>
+          <t>1538845936599937026</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>songulztrko</t>
+          <t>Ali_Alpar</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Universite Mülakat sonuçlarının hızlıca açıklanmasını istiyoruz</t>
+          <t>Ankara hızlı tren faciasında dosya düşürüldü Bu kazada ölen  kişi arasında eski rektör yardımcısı Fen öğretim üyesi değerli astronom meslektaşım Prof Berahitdin Albayrak vardı aklinizi</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1517954642059141120</t>
+          <t>1538845754780966912</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>songulztrko</t>
+          <t>Ali_Alpar</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Universite Kübra Hanım sesimizi duyun lütfen</t>
+          <t>Bu kazada ölen  kişi arasında eski rektör yardımcısı Fen öğretim üyesi değerli astronom meslektaşım Prof Berahitdin Albayrak vardı aklinizi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1517954406796378113</t>
+          <t>1538845507484897281</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>kubrayigitbasi</t>
+          <t>Ali_Alpar</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ankara Miletvekilimiz Sn Universite Rektörlerimiz birlikte ’ın düzenlediği iftar programında hemşehrilerimizle buluştuk Rabim tutuğumuz oruçlarımızı dualarımızı kabul eylesin Hemşehrilerimize teşekür ediyorum</t>
+          <t>Bakanlık izin vermedi Ankara tren kazası dosyası düşürüldü Bu kazada ölen  kişi arasında eski rektör yardımcısı Fen öğretim üyesi değerli astronom meslektaşım Prof Berahitdin Albayrak vardı aklinizi</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1517947012641173507</t>
+          <t>1538840402853347330</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>TURKPATENT_EN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sinema Günleri’nde John Nash’in büyülü dünyasına konuk olduk ABeautifulMind AnkaraÜniversitesi</t>
+          <t>IP Conference The Scope of Protection and Limitations in the Field of Design Law wil be held on the ocasion of the closing of the th edition of the IP Law Masters Program jointly run by and June   Ankara Time UTC Online</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1517945540654292992</t>
+          <t>1538837885897654274</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Enver60135277</t>
+          <t>anadolupatent</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Universite magdur ogretmenın durumunu bildiğiniz halde uc yıldır oturduğunuz makamda gormezden geldiniz bir uc yıl davalarla ugrastiriyorsunuz yazık gunah degılmıdır insanlara umutlarını kırdınız</t>
+          <t xml:space="preserve"> TÜRKPATENT iş birliğiyle yürütülen Fikri Mülkiyet Hukuku Yüksek Lisans Programının ’ncı dönem kapanış etkinliğinde “Tasarım Hukuku Alanında Koruma Kapsamı Sınırlamalar” konferansı gerçekleştirilecektir  Hazir…</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1517944260829585409</t>
+          <t>1538833555048091648</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Alo183Kurumsal</t>
+          <t>TURKPATENT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Universite Merhaba TC Aile Sosyal Hizmetler Bakanlığı olarak size yardımcı olabilmemiz iletişim bilgilerinizi özel mesaj bizimle paylaşır mısınız</t>
+          <t>TÜRKPATENT iş birliğiyle yürütülen Fikri Mülkiyet Hukuku Yüksek Lisans Programının ’ncı dönem kapanış etkinliğinde “Tasarım Hukuku Alanında Koruma Kapsamı Sınırlamalar” konferansı gerçekleştirilecektir  Haziran  Online</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1517943561630715912</t>
+          <t>1538827016161599496</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Enver60135277</t>
+          <t>kaanbayyram</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Universite Sistemde atama tercıh hakı bulunan magdur ogretmenın hakını Alah sorar size bırgun uc yıldır haksızlığı yazıyoruz size sgk prim günü eşitsizliği adılmıdır oturduğunuz makamın hakını verin sorunu cozun düğüm olmayın</t>
+          <t>Bütün bütü bir yok</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1517941705546379265</t>
+          <t>1538821307743326208</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AhmedBeydag</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Universite Erdem KPS Mülakat girdiğimiz TEDAŞın özeleştirilmesi sonrası Önce C statüsünde Şimdi BC içerikli statüde perişan oluyoruz Ünvan Kadro Haklarımızı iade edin aliyalcin</t>
+          <t>Spor Bilimleri Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1517939848644026368</t>
+          <t>1538810573151928320</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>YasarSosyal53</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Universite SAYIN MİLETVEKİLM aydır miletvekilerine yazıyorum dahil aydır gemi arıyorum yeterliliğim GEMİCİ ilkdefa cıkaçagım bin tl borçum var evladıma okul harçlığı veremez hale geldim ALAH RIZASI İÇİN DİKATE ALIN SAYĞILARIMLA</t>
+          <t>Ankara’da okuduk “Biz olduk Angaralı” Adios Amigos mezunları AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1517937429474328576</t>
+          <t>1538806049972666368</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4cbli</t>
+          <t>td_tweet_dreams</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Universite C İKEN Bye GEÇEMEYEN BİZ CBLİLERİN ZORUNLU EMEKLİLİK EK ÖDEME MAĞDURİYETİ GİDERİLMELİÜNVAN VE KIDEM HAKLARIMIZ İADE EDİLMELİ BUNLARIN ÇÖZÜMÜ KADRO DUR ADALET BEKLİYORUZ SY Erdem</t>
+          <t>mezuniyetleriniz iyi güzel hoş erik dalı çalmayı bıraksanız artık sıtkım sıyrıldı yeminle</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3275,61 +3270,61 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1517937237316538368</t>
+          <t>1538786046170767363</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>universitelisci</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Universite</t>
+          <t>Spor Bilimleri Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1517937110635921411</t>
+          <t>1538784850164998145</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>emrullahisler</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Aile Sosyal Hizmetler Bakan Yardımcımız Sayın DoçDr Universite Rektörlerimiz birlikte ’ın düzenlemiş olduğu iftar yemeğinde kıymetli hemşerilerimizle bir araya geldik Rabimbirlik beraberliğimizi daim etsin</t>
+          <t>Günaydın memleketlerine Hitit Güneşi’ni götüren Ankara Üniversiteliler pazartesi AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1517931458106736642</t>
+          <t>1538653117687992331</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MaxAttwood</t>
+          <t>Furaze_</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>chem I cant se the lifetime of the trEPR signal Would you hapen to recal</t>
+          <t>Ankara A İlahiyat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3341,215 +3336,215 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1517924583961206792</t>
+          <t>1538648428917493770</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>imraan756</t>
+          <t>betulgkbga</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>chem Yeah nice work done by our group</t>
+          <t>Ankara A Fizik Mühendisliği</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1517913136891846662</t>
+          <t>1538644493506859012</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>paydosnft</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Dekan Yardımcımız Doç Dr Hidayet Suha Yüksel kordinasyonunda etkinlikliklerde görev alan öğrencilerimize teşekür ediyoruz</t>
+          <t>Ankara A Ortez Protez</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1517884912271036419</t>
+          <t>1538632185246363648</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>DoganIlhan23</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesinde Nisan Ulusal Egemenlik Çocuk Bayramı Dolayısıyla Rektör Koltuğuna Oturan İlkokul Öğrencisi Sosyal Etkinliklerin Sayısının Artırılması Talimatını Verdi unihaber</t>
+          <t>Ankara A Hukuk</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1517865249025757184</t>
+          <t>1538630132734238728</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AnkuzefHaber</t>
+          <t>pharmakt</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>govtr Beğenmedik</t>
+          <t>Ankara A Eczacılık</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1517864390980157442</t>
+          <t>1538621513179488258</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AnkaraUni_en</t>
+          <t>balarisiacu</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Rectors Mesage on April th National Sovereignty and Childrens Day</t>
+          <t>Ankara A Matematik</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1517863780088176643</t>
+          <t>1538618756317978625</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>AnkaraUni_en</t>
+          <t>MehmetE21238665</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HapyAprilth</t>
+          <t>Ankara A Tıp Fakültesi</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1517857093755322369</t>
+          <t>1538614911210856449</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ank_nmyo</t>
+          <t>ozer_serhatt</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramımız Kutlu Olsun Nisan ayhanaydin</t>
+          <t>Ankara Eczacılık sanora smart dod</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1517837278693007360</t>
+          <t>1538613962140442625</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>dmrksnn</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MÜGAM GÖÇ SERTİFİKA PROGRAMI tamamlandı Sonsuz teşekürler</t>
+          <t>Ankara Sonora Smart Dod Kimya Mühendisliği</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1517830090834468867</t>
+          <t>1538606788123283459</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>MehmetErkanAlu1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Geliştirme Vakfı Özel Okuları Nisan Ulusal Egemenlik Çocuk Bayramını Gerçekleştirilen Törenle Kutladı unihaber</t>
+          <t>Ankara Sonora Smart Dod İlahiyat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1517827710231490561</t>
+          <t>1538604699271692288</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AUEBF</t>
+          <t>arianrhodmoon</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sevgili EBF öğrencilerimiz Öğrenci kongremizde iyi bildiri seçilecek olup hediyelerimiz olacaktır Dinleyici olarak katılacak öğrencilerimize katılım belgesi verilecektir Bildiri özetlerinizi üzerinden bekliyoruz</t>
+          <t>Ankara A Matematik</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3561,271 +3556,271 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1517826101963366400</t>
+          <t>1538603930459983873</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>kaliteelcisi</t>
+          <t>zehragzrr</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>UNV Univ</t>
+          <t>Ankara Bahçe Tarım Sanora Smart Dod</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1517820550894206976</t>
+          <t>1538602646277345281</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>UQELAABencil</t>
+          <t>iilaydatoprak</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ankarada konuşarak ingilizce öğrenmek ister misiniz gereksiz gramer yalın bir şekilde ister online ister evde çalışmalarımız vardır iletişim ingilizce org</t>
+          <t>Ankara Beslenme diyetetikSonora Smart Dod</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1517795841397997568</t>
+          <t>1538600146761666562</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SebnemNYC</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>very nice and surprisingly fast resident Zahracım</t>
+          <t>BU SEFER HEDİYELER BABALARA ’de Bir “Babalar Günü” sorusu Soruda tanımlanan kimdir ️Beğen okuduğun bölümle cevabını yaz İki kişiye Babalarına tişört hediye ediyoruz AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1517787540274749440</t>
+          <t>1538519516480774144</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TheHolySaint</t>
+          <t>lokmanayva</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Doç Dr üçüncü tarafından görevinden uzaklaştırıldı Aklıma Tanpınar’ın Türkiye evlatlarına kendisinden başka bir şeyle meşgul olmak imkânını vermiyor cümlesi geldi Bırakın hocalar akademik konularına odaklansın</t>
+          <t>Hikmet noktayı nazarından bakılınca anlaşılırki himete muvafık katkılarınızdan dolayı minetar müteşekiriz Hocam Rabim iki cihanda bahtiyar etsisizi sevdiklerinizi</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1517766301594402817</t>
+          <t>1538512007120527360</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>aruberutou</t>
+          <t>aysunsmmm</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>angewchem LongLived ChargeTransfer State in Spiro Compact Electron DonorAceptor Dyads Based on PyromelitimideDerived Rhodamine Charge Transfer Dynamics and Electron Spin Polarization Yaglioglu openaces…</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1517760586456739840</t>
+          <t>1538506368839303169</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramı kutlu olsun</t>
+          <t>Rektör Ünüvar “TEDx HacetepeUniversity” Etkinliğinde Konuştu unihaber</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1517756055492702208</t>
+          <t>1538468345212715009</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>necdetunuvar</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CANLI YAYIN Çocuk İhmal İstismarına Multidisipliner Yaklaşım Sempozyumu</t>
+          <t>HaftanınÖzeti   Haziran Haziran  en</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1517750368003842048</t>
+          <t>1538461529648992256</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ZahraDhaoui</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Nice resident inded</t>
+          <t>Bilim yolunu aydınlatan babalarımızın babalar günü kutlu olsun BabalarGünü</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1517724210403102721</t>
+          <t>1538432654256791553</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>AnkaraUni_Fen</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NisanKutluOlsun</t>
+          <t>Babalar Günümüz Kutlu Olsun babalargunukutluolsun babalargünü ankarafen halicioglu</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1517648254472790025</t>
+          <t>1538418909170352128</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MÜGAMKAS Göç Sertifika Programında son gün OUNUTULMAZ Diaspora Kavramı Yurtdışı Türkler HGÜLERCE Göçmen Bavulu Deneyimsel Öğrenme Metoduyla academy</t>
+          <t>Babalar zaman çocuklarının hayat boyu örnek aldığı kahramanlarıdır Kahraman babalar BabalarGünü kutlu olsun AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1517611941434384384</t>
+          <t>1538409124073021440</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PençeKilit operasyon bölgesinde şehit düşen Teğmen Bekir Can Kerek Uzm Çvş Kubilay Çon FıratKalkanı operasyonunda şehit olan Özel Harekat Polisi Aytaç Altınörse Alah’tan rahmet ailelerine miletimize başsağlığı dileriz</t>
+          <t>Babalar Günümüz Kutlu Olsun</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1517601874899316737</t>
+          <t>1538282040130510848</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>AfamVe</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Rektörü Prof Dr Necdet Ünüvar Üniversite Yönetimi Veteriner Fakültesi Öğrencileriyle İftar Programında Buluştu unihaber</t>
+          <t>Tüm babalarımızın gününü kutlarız babalargunu</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1517601552860594176</t>
+          <t>1538262241329438720</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3835,7 +3830,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NİSAN Kutlu Olsun Öğrencilerimize unutamadıkları Nisan anılarını sorduk Bakalım cevaplar gelmiş AnkaraÜniversitesi</t>
+          <t>Portekizde düzenlenen Dünya Para Yüzme Şampiyonasında derece alarak ülkemizi temsil eden sporcularımızı tebrik ediyoruz Yaşatığınız başarıyla gurur duyuyoruz TürkParalimpik AnkaraÜmiversitesi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3847,149 +3842,149 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1517592791634874369</t>
+          <t>1538251070065250304</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>SerapAkbudak1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>PençeKilit Operasyonunda hain teröristlerle çıkan çatışmada şehit düşen kahraman Piyade Uzman Çavuş Furkan Göke Alah’tan rahmet kederli ailesine silah arkadaşlarına başsağlığı dileriz Aziz Miletimizin başı sağolsun</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1517590494519480320</t>
+          <t>1538202009802887170</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ankuzef</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramımız kutlu olsun Nisan NisanKutluOlsun Atatürk</t>
+          <t>Mislicom Türkiye Basketbol Ligi playof final serisi sonucunda ING Basketbol Süper Ligine yükselen Beysu Konyaspor Basketbolu kutluyoruz</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1517580999424630785</t>
+          <t>1538180443312357376</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bbestekaya</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ankara tekerli bisiklet kulanamayanlar var onlara tekerli olsa</t>
+          <t>Geliri ’ye bağışlanacak ’de Rektörümüz ’ın Hira Nur’un hikayesi hepimize ilham oldu  hikayeler var olsun AnkaraÜniversitesi TEDx</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1517574177057906690</t>
+          <t>1538168554075332608</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AnkaraUni_Fen</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Fen Fakültesi olarak Astronomi Fizik Bölümlerimizle TBM TÜBİTAK birlikte Gazi Meclisimizin bahçesinde düzenlediğimiz açılış programında Cumhurbaşkanımız Sn programa katılan çocuklarımızın sevincini paylaştı</t>
+          <t>Ankara Üniversitesi Rektörü ProfDr Necdet Ünüvar TEDx HacetepeUniversity etkinliğinde… Bu hikaye böyle başlamadı</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1517573894265266182</t>
+          <t>1538137695503155200</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>ATOkurumsal</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Rektörümüz öğrenci topluluklarımız bir araya geldi Rektörümüz topluluklarımızın yaptığı çalışmaları dinlerken ihtiyaç taleplerine kulak verdi AnkaraÜniversitesi</t>
+          <t>Baran’a katkılarından dolayı E Enerji Tabi Kaynaklar Bakanı Taner Yıldız tarafından plaket takdim edildi Baran etkinlikte Rektörü Prof Dr bir araya geldi</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1517572320705105920</t>
+          <t>1538121422400327680</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MaxAttwood</t>
+          <t>55eminakdag</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>chem Realy great paper How long did the trEPR signal last</t>
+          <t>ANKARA ANKARA GÜZEL ANKARA… aracılığıyla</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1517570803361005569</t>
+          <t>1538081120037781510</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AUEBF</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramı kutlu olsun</t>
+          <t>Baba Bir ömür boyu bitmeyen çaba Başta vefat ederek ebedi dünyaya göç etmiş babalarımıza yüce Alahtan rahmet dilerken babalarımızın BabalarGünü nü kutlar aileleriyle sağlıklı huzurlu mutlu bir ömür sürmelerini dileriz</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4001,83 +3996,83 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1517564339066179585</t>
+          <t>1538076239667376129</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>angew_chem</t>
+          <t>AvFyzllhKlbs</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>LongLived ChargeTransfer State in Spiro Compact Electron DonorAceptor Dyads Based on PyromelitimideDerived Rhodamine Charge Transfer Dynamics and Electron Spin Polarization Yaglioglu openaces</t>
+          <t>Hocam harikasınız</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1517563645391261696</t>
+          <t>1538060120621555712</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>YabanHastanesi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Akyurt Belediyesi Arasında İlçedeki Tarımsal Faliyetlerin Niteliğinin Artırılmasına İlişkin Protokol İmzalandı unihaber</t>
+          <t>Doğada bir başlarına bulunan bebek bozkurtların Hayvan Hastanemizdeki bakım rehabilitasyonu devam ediyor</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1517556126165966848</t>
+          <t>1537951688081825797</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BThaberAnkara</t>
+          <t>sbfmugam</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ankara Ün Rektörü Değerli DijitalTürkiye ndeki teknolojik gelişim hakında sohbet etik ailesi olarak teşekür ederiz Bugünden güzel bir not NFTnin Türkçe karşılığı tarafından Nitelikli Fikrî Tapu olarak açıklandı</t>
+          <t>Washington DC merkezli amp us işbirliğinde Sociopolitical impact of refuges in Turkey başlığı gerçekleşen etkinlikte MÜGAM Director konuşmacı olarak yer aldı</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1517549247490662400</t>
+          <t>1537881256502824960</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>alican_1969</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Fakültemizde idari personelimize iftar yemeği verildi Başta Dekanımız Prof Dr a Dekan Yardımcılarımız Doç Dr Doç Dr önceki Fakülte Sekreterimiz a teşekür ederiz DtcfResmi</t>
+          <t>Ankara Üniversitesi Uygulamalı Bilimler Fakültesi Mezunları Kep Atı AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4089,95 +4084,95 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1517547213970415617</t>
+          <t>1537876110142328832</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AU_DtcfResmi</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Fakültemizde idari personelimize iftar yemeği verildi Başta Dekanımız Prof Dr a Dekan Yardımcılarımız Doç Dr Doç Dr önceki Fakülte Sekreterimiz a teşekür ederiz DtcfResmi</t>
+          <t>Ankara Üniversitesi öğrencilerinden YKS’ye girecek potansiyel Ankara Üniversitelilere mesaj var Sınava girecek bütün öğrencilere başarılar dileriz AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1517522526234157061</t>
+          <t>1537842559678132227</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ibnisina_hst</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Aradan yıl geçmiş olsa bile çocuklar büyük bir heyecanla ruhuyla özel günü kutluyor miletimizin sevincini paylaşıyoruz Egemenlik bila kaydu şart miletindir</t>
+          <t xml:space="preserve"> EğitimÖğretim yılını tamamlayarak karne alan öğrencilerimizi tebrik eder sağlıklı mutlu günler içerisinde iyi tatiler dileriz karnegünü</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1517509167539494915</t>
+          <t>1537835256560201729</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Akademik İdari Personeline Yönelik Akademik Veri Yönetim Sistemi Hakında Bilgilendirme Toplantısı Gerçekleştirildi unihaber</t>
+          <t>Ankara Üniversitesi Teknoloji Transfer Ofisi Kordinatörlüğü ekip toplantısında biraraya geldi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1517509026296344576</t>
+          <t>1537809184112136193</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AnkaraTTO</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bilim teknoloji yeşeren yarınların güçlü adımları çocuklarımızın Nisan Ulusal Egemenlik Çocuk Bayramı Kutlu Olsun NisanUlusalEgemenlikveCocukBayramı NisanUlusalEgemenlikveÇocukBayramı NisanKutluOlsun</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1517507055636074497</t>
+          <t>1537802555610304514</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4187,7 +4182,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Rektörü Prof Dr Necdet Ünüvar Üniversite Yönetimi Öğrenci Toplulukları Temsilcileriyle Bir Araya Geldi unihaber</t>
+          <t>Uygulamalı Bilimler Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4199,61 +4194,61 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1517490631777607681</t>
+          <t>1537782397885890560</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>au_tite</t>
+          <t>RGS_IBGhe</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PANEL ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye</t>
+          <t>New in Areajournal Maping hegemony in Geography A historical perspective from the periphery by Erdem Bekaroğlu en and Suat Yazan Kastamonu University</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1517490065299189760</t>
+          <t>1537770806331187200</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>au_tite</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TİTE TBM Bahçesinde Fotoğraflarla Atatürk Çocuk Sergisinden kareler türkinkılaptarihienstitüsü</t>
+          <t>Sınavda Başarılar</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1517489825187864576</t>
+          <t>1537760241596637184</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>au_tite</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TİTE TBM Bahçesinde Fotoğraflarla Atatürk Çocuk Sergisinden kareler türkinkılaptarihienstitüsü</t>
+          <t>Uygulamalı Bilimler Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4265,105 +4260,105 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1517488644315099137</t>
+          <t>1537724951842660354</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>au_tite</t>
+          <t>AnkaraTeknokent</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nisan tarihlerinde düzenlediğimiz Türk İnkılap Tarihi Enstitüsünün Kuruluşunun Yılında Mezunlarının Gözünden Türk İnkılabı Sempozyumundan kareler türkinkılaptarihienstitüsü</t>
+          <t>Teknokentimiz bünyesindeki Agri GenomX Hub i İstanbulda i Ankarada ’si diğer ilerimizde toplam  adet hastanesi bulunan Sağlık Bilimleri Üniversitesi Sağlık Teknokenti Teknopol İstanbul arasında işbirliği anlaşması imzalandı</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1517488448780873729</t>
+          <t>1537520117495504908</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>au_tite</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Nisan tarihlerinde düzenlediğimiz Türk İnkılap Tarihi Enstitüsünün Kuruluşunun Yılında Mezunlarının Gözünden Türk İnkılabı Sempozyumundan kareler türkinkılaptarihienstitüsü</t>
+          <t>Kültür Sanat Merkezi kurslarımız hazırladığımız ankete katıldınız mı Yeni dönemde KSM kurslarımızla ilgili görüş öneri isteklerinizi bize iletebilirsiniz Anket AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1517485783837556736</t>
+          <t>1537519358582444036</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SutAnkara</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramımız Kutlu Olsun AnkaraÜniversitesi</t>
+          <t>Ankara Üniversitesi Veteriner Fakültesinin Gurur Günü AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1517483982098677762</t>
+          <t>1537503013765521410</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NihatKocyigit</t>
+          <t>ankeczacilik</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Yılardır devletvakıf üniversitelerinde özel öğretim kurumlarda çalışan insanlar asıl meselenin hukuk tanımazlık mobing güvencesizlik olduğunu söylüyoruz Son örneği den Dostumuz Doç Dr Meltem Kayıran işten çıkarıldı Yine yanındayız</t>
+          <t>Fakültemiz Akademik Genel Kurul Toplantısı Dekanımız Prof Dr Asuman Bozkır’ın  arası faliyetleri özetlediği sunumuyla başladı Tüm öğretim üyelerimizin katılımı teşekür ederiz</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1517479920385114113</t>
+          <t>1537497475573063680</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NihatKocyigit</t>
+          <t>HokLabs</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Hukuk tanımamazlıkta sınırı olmayan bir üniversite gtgtgt Doç Dr Meltem Kayıran’ın ’üncü Mülkiye’yle ilişiği kesildi</t>
+          <t xml:space="preserve"> yılında ana teması nörogörüntüleme olan bir kongre düzenleyeceğiz İnsalah yeni binamız yetişir Türkiyenin ortasında Beyin araştırmalarında referans merkezinde hocalarımız arkadaşlarımız buluşuruz res</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4375,29 +4370,29 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1517472137229000706</t>
+          <t>1537485523547312129</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>wisdom_au</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fakültemizde düzenlediğimiz iftar şenliği programımızın organizasyonunda emeği geçen katılan herkese teşekür ediyoruz au Ankara</t>
+          <t>Hafta sonu Yükseköğretim Kurumları Sınavına YKS girecek öğrencilerimize başarılar dileriz yks ösym tyt yks ayt üniversite sınav</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1517461678451052545</t>
+          <t>1537467366300336129</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4407,63 +4402,63 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramımız Kutlu Olsun</t>
+          <t>Veteriner Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1517442039671046144</t>
+          <t>1537464003915554817</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SebnemNYC</t>
+          <t>kedicidergisi</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EarthDay selfie with the notsoslow resident of our Tandoğan campus Bugün Tandoğan kampüsümüzde karşıma çıkan kaplumbağa düşündüğümden hızlıydı selfie çekmesi zor oldu DunyaGunu investinourplanet gezegenimizeyatırımyap</t>
+          <t>Bugün gerçekleşen Ankara Üniversitesi Veteriner Fakültesi mezuniyet töreninde kedilere olan sevgisini bildiğimiz Ankara Üniversitesi Rektörü Sayın Prof Dr Necdet Ünüvar’a Kedici Dergisi hediye etmekten mutluluk duyduk</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1517441803791867906</t>
+          <t>1537459417616089089</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ankara_Saglik</t>
+          <t>Sezgiiibkfc</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Fakültemiz tarafından hazırlanacak olan “Sürdürülebilir Sağlıklı Toplumlar” Kitap Bölüm Yazarlığı Çağrısı</t>
+          <t>Ankara Belediyesi hemşehrin başarılı oyuncu Batuhan Karacakayaya destek olursanız mutlu oluruz Batuhan yazıp a sms gönderiyoruz</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1517441661793710080</t>
+          <t>1537443993117523970</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4473,51 +4468,51 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Türkiye Büyük Milet Meclisinin kuruluş yıl dönümü Ulu Önder Gazi Mustafa Kemal Atatürk’ün çocuklara armağan etiği Nisan Ulusal Egemenlik Çocuk Bayramımız kutlu olsun Nisan UlusalEgemenlik ÇocukBayramı</t>
+          <t>PençeKilit Operasyonu’nda şehit düşen kahraman mehmetçiğimiz Kadir Kemik’e Alah’tan rahmet ailesine aziz miletimize başsağlığı diliyoruz</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1517441398949269504</t>
+          <t>1537440715130540037</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Türkiye Büyük Milet Meclisi’nin Yasalığı isimli konferans düzenlendi</t>
+          <t>Türkiye Futbol Federasyonu TF Olağanüstü Seçimli Genel Kurulunda başkanlığa seçilen Sn Mehmet Büyükekşiyi MehmetBuyukeksi yönetim kurulu üyelerini tebrik eder yeni dönemde başarılar dileriz Org</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1517441299267338247</t>
+          <t>1537430467762348034</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TurkiyeHaberiTR</t>
+          <t>biralnas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Türkiye Büyük Milet Meclisi’nin Yasalığı isimli konferans düzenlendi</t>
+          <t>I am so hapy and I am sure this is just the begining</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4529,61 +4524,61 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1517405182862233601</t>
+          <t>1537427551882076161</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>au_tite</t>
+          <t>theyarefree1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PANEL ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye</t>
+          <t>Yorumları açın biraz aktivizm yapalım</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1517396970326867968</t>
+          <t>1537423193958404096</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AnkaraUni_Fen</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramımız kutlu olsun ankarafen NisanUlusalEgemenlikveCocukBayramı NisandaAnıtkabire Nisan</t>
+          <t>Veteriner Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1517274236519337985</t>
+          <t>1537394185698934786</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>AnkaraTeknokent</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Nisan Cuma tarihli “Gayrimenkul Geliştirme Uzmanlığı Meslek Kuruluşları GY Derneği konulu seminerde GYD yönetimi ağırlanacaktır Etkinliğe canlı yayınımızdan katılabilirsiniz</t>
+          <t>Genomik inovasyon biyoinformatik analiz alanında çalışan Genolysis AŞ Ankara Üniversitesi Teknokent Laboratuvarı olan AgriGenomik Hub AgriGx arasında işbirliği protokolü Genel Müdürümüz Güray Değerlinin katılımı imzalandı</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4595,61 +4590,61 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1517258980573294592</t>
+          <t>1537391968598298624</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>SebnemNYC</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MÜGAMKAS Göç Sertifika Programı devam ediyor AYILDIZ DÜZENSIZ GÖÇ VE GÖÇMEN KAÇAKÇILIĞI ZHEKMATARSA AFGAN MÜLTECİLER SCDOLANBAYIGAM MÜLTECİ SAHA ÇALIŞMALARI igamder</t>
+          <t>I don’t know how to thank my dear friend and briliant coleague for acepting my hard working student Beyza I am sure our colaboration wil open our way to publications and new projects</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1517254085354954754</t>
+          <t>1537384126872969217</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sbfmugam</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MÜGAMKAS Göç Sertifika Programı devam ediyor SÖZÇÜRÜMEZTOPLUMSAL BÜTÜNLEŞME VE TÜRKIYEDE ZORUNLU GÖÇ GÖZERİMPOLITIKA ARACI OLARAK GÖÇ ŞKAKÇAPARGÖÇ HAREKETLERI VE TÜRKIYE’DE ‘’KADIN MÜLTECILER’</t>
+          <t>İletişim Fakültesi Mezunlarımızı Uğurladık AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1517235620124442624</t>
+          <t>1537382904950669312</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>biralnas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Sinema Günleri’nin Haftasında var A Beaful Mind Nisan Cuma Başvurular yarın sat ’da alınacaktır AnkaraÜniversitesi</t>
+          <t>Erasmus what a fantastic programe also for supervisors I am so glad I had the oportunity to work with such a briliant student Thanks Beyza for your enthusiasm and thanks to for always trusting me</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4661,17 +4656,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1517215147168776193</t>
+          <t>1537376946228715520</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>EHMAinfo</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Üniversitemiz Uluslararası Stratejik Araştırmalar Grubu Öğrenci Topluluğu USAG Türkiye Psikoloji Öğrencileri Topluluğu bir araya geldik Topluluklarımızla projeleri hakında istişarelerde bulunup desteklerimizi iletik AnkaraÜniversitesi</t>
+          <t>Ms Gamze Kutlu en presents Costefectivenes analysis of proximal femoral nail amp bipolar hemiarthroplasty in hip fracture surgery a research caried out w  voluntary patients aged  amp over in a state university hospital in Ankara EHMA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4683,39 +4678,39 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1517202602286628874</t>
+          <t>1537362434654146560</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AlgBhc</t>
+          <t>barissahin19gek</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>açıkders sitesinde verdiğiniz halife bilgisi yanlıştır doğrusu Bağdat’ta Halife MuktedîBiemrilâh’ın oğlu Ebü’lKāsım Abdulah’a takdim etmiştir</t>
+          <t>Yapay et çalışmalarını Ankara üniversitesi yapıyor rektörü denen şahıs twite görüldüğü üzere yapay et çalışmasını yapan kişiye ekibine övgüler yağdırıyor En korkuncu Necdet Ünüvar Cumhurbaşkanılığı Gıda kurulu üyesi Susma Müslüman susma</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1517199366406221824</t>
+          <t>1537343503927214080</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AlgBhc</t>
+          <t>AnkaraTeknokent</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Merhaba bir çalışma bilgi almak üzere açık ders malzemeleri sayfanıza ulaştım Burada verdiğiniz bilginin yanlış olduğunu tespit etim Divanı Lügati Türk eserinin sunulduğu kişi bilgisi verilen ders notunda yanlış yazılmıştır Doğrusu oğlu Ebü’lKāsım Abdulah’tır</t>
+          <t>TC Adalet Bakanlığı Bilgi İşlem Genel Müdürlüğü Ankara Üniversitesi Teknokent arasında Karar Destek Yazılımları Enformatik Anonimleştirme alanlarda işbirliği çözüm ortaklığı protokolü imzalandı bakanlik</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4727,281 +4722,281 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1517163515127074818</t>
+          <t>1537335413370761216</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TurkiyeHaberiTR</t>
+          <t>ankeczacilik</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AOSB ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+          <t>Fakültemiz Sınıf ingilizce program öğrencimiz Aslı Avşar Ankara Üniversitesi Öğrenci Konseyi genel sekreteri fakültemiz fakülte temsilcisi olarak görevlendirilmiştir Kendisini tebrik eder başarılar dileriz</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1517162084475174917</t>
+          <t>1537329827698573312</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>turkuazgazetes1</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AOSB ULUSAL SANAYİ ODAKLI ARGE VE İNOVASYON PROJE YARIŞMASI SONUÇLANDI</t>
+          <t xml:space="preserve"> Haziran  Tarihleri Arasında Yapılması Planlanan Mezuniyet Törenleri İle İlgili Mezuniyet Tarih Konum Listesi</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1517147569016631298</t>
+          <t>1537320825367547904</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AnkaraTTO</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Akılı çözümleri CampTech Anka girişimcilerini yalnız bırakmayan Ana Sponsorumuz TURKSATa teşekürlerimizi sunarız</t>
+          <t>İLEFin Proje Yarışması TRTde</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1517142019377799172</t>
+          <t>1537248350323544064</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>TurkiyeHaberiTR</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Özbekistanın Jeoloji Maden Kaynakları Devlet Komitesi Jeoloji Bilimler Üniversitesi Arasında Mutabakat Zaptı İmzalandı unihaber</t>
+          <t>DİCLE ÜNİVERSİTESİ GELECEĞİN VETERİNER HEKİMLERİ KEP ATI Karakoc</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1517131107359072256</t>
+          <t>1537245113344487424</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>turkuazgazetes1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Fakültemiz Dekan Yardımcısı Doç Dr Hidayet Süha Yüksel Öğretim Üyesi Doç Dr Nevin Gündüz tarafından Ankara Gölbaşı ilçesi Beden Eğitimi Öğretmenlerine ilk eğitimler verildi</t>
+          <t>DİCLE ÜNİVERSİTESİ GELECEĞİN VETERİNER HEKİMLERİ KEP ATI Karakoc</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1517121142154317824</t>
+          <t>1537171493167284225</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>rasim2ran</t>
+          <t>paydosnft</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Akşam çocuklar ders çalışırken</t>
+          <t>Ankara Eğitimin tek adresi Ankara Üniversitesi</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1517117555592290306</t>
+          <t>1537169074966474757</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>turksat</t>
+          <t>auhabercisi</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Nitelikli genç nesiler yetiştirmeyi şiar edinen bir şirket olarak genç girişimcilerin iş fikirlerini geliştirmesine olanak tanıyan CampTechAnka’da sizlere destek olmaktan büyük memnuniyet duyduk Türksat imkanlarıyla gençlerin yanında</t>
+          <t>Ankara Eğitimiyle kalitesiyle gelişmek istiyorsan düşünme tek durağın Ankara Üniversitesi</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1517110536038662144</t>
+          <t>1537154867902529536</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Fakültemiz öğretim üyelerinden Profesörlüğe atanan Prof Dr Fırat AKÇA hocamıza atama belgesi Fakülte Dekanımız Prof Dr Semiyha TUNCEL hocamız tarafından takdim edildi Kendisini tebrik ediyor başarılarının devamını diliyoruz</t>
+          <t>İletişim Fakültesi Öğrencilerinden İletişim Kampanyası Proje Yarışması unihaber</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1517096729463640064</t>
+          <t>1537144835962023941</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>emre_erkoca</t>
+          <t>SKS_Ankara</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CUMHURBAŞKANI MÜSLÜMAN MISINIZ NEDEN KULAĞINIZI TIKIYOR SESİMİZİ NEDEN DUYMUYOR CUMHURBAŞKANI VE YANDAŞLARI SES VERİN EVDEN ATILIYORUM CUMHURBAŞKANI SEN VE AİLEN YANDAŞLARIN ZEVKİ SEFA SÜRERKEN BENİM AİLEM AC VE EVSİZ KALMAMIZA NEDEN YARDIM ETMİYORSUNUZ</t>
+          <t>Geliri ’ye bağışlanacak gün saymaya başladı Hafta sonu sınava girecek geleceğin Ankara Üniversitelilerine mesajını ilet hediye  bileten birini kazan AnkaraÜniversitesi</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1517095433344061440</t>
+          <t>1537139503470714881</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>gkcegll</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Tersten saysın</t>
+          <t>CanAzerbaycan ın Milî Kurtuluş Günü kutlu olsun İyun Azərbaycan MiliQurtuluşGünü mübarək olsun</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1517095182553997317</t>
+          <t>1537132557581664256</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DenizYa80571347</t>
+          <t>kaansahintr</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MHP nin TEKLİFİNİKAPSAMİNİ İSTİYORUZ yıl çözüm değildir DOSYA BAŞI OLARAK yıl bir adli mahkumun kapsam dışı kalmasını istemiyoruz kapsama alınmasını istiyoruz Yazici</t>
+          <t>Yönetemiyorsanız bize bırakın kendi mezuniyetimizi kendimiz yapalım İnsanları mağdur etmeyi bırakın</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1517092678063824897</t>
+          <t>1537125195667865601</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ibnisina_hst</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>İnsanlık tarihi kadar eski kadim mesleği icra eden sağlık hizmeti sunumunda önemli bir role sahip ebelerimizin “Ebeler Haftası kutlu olsun</t>
+          <t>Eğitim Bilimleri Fakültesi Mezunlarını Uğurladı AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1517072114326593537</t>
+          <t>1537124169833496579</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>29mustafaeser</t>
+          <t>TanzanyaTika</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>programına dair tarihli duyurusunu programa başvurunun son günü olan tarihinde yayınlıyor Acele etmeseydiniz</t>
+          <t>In coperation with weks Bone Marow Transplantation Training Program was conducted for  hematologists from In the end of the training program they received their certificates</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5013,83 +5008,83 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1517069437035237383</t>
+          <t>1537121874664103937</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>auubfgayrimenk1</t>
+          <t>tccbiko</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Perşembe Gayrimenkul Geliştirme Yönetimi Bölümü Liselerle Buluşuyor başlıklı tanıtım etkinliği çevrimiçi olarak gerçekleştirilecektir Katılım Linki</t>
+          <t>Ankara Üniversitesi İletişim Fakültesi düzenlenen Proje Yarışması’nın kazananları bugün gerçekleştirilen final programında beli oldu hazırlanan kampanya fikriyle birinciliği kazanan öğrenciler Ofisimizde staj yapma hakı kazandı</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1517044957009358849</t>
+          <t>1537096022094237697</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BIAATweet</t>
+          <t>AUEBF</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>The BIA welcomed archaeology students in the English language programe at yesterday for talks and a tour together with asoc prof</t>
+          <t>Fakültemiz  EğitimÖğretim Yılı Mezuniyet Törenimizi  Haziran  tarihinde büyük bir coşku gerçekleştirdik Mezunlarımıza bundan sonraki yaşantılarında sağlık mutluluk başarılar dileriz</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1516899642662961152</t>
+          <t>1537086139735101442</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TatiaMinaeva</t>
+          <t>TugceAkg6</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>in the city of Mariupol remains up to civilians including children There are also our warior heroes who defend their homeland and democracy around the world The Rusians do not give a gren coridor Only in your power to save our people by sea Help them please</t>
+          <t xml:space="preserve"> Saniyedeki heyecanım shfhf</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1516880555295584256</t>
+          <t>1537080307261886466</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>necdetunuvar</t>
+          <t>0skarBasturk</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Çok teşekür ediyoruz Sn Miletvekilim</t>
+          <t>nefesol kusu Universite Haydı elele verelim ANKARA EBRAR nefesalsin</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5101,61 +5096,61 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1516876947577622530</t>
+          <t>1537073889607548928</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>yhankarauni</t>
+          <t>AnkaraTTO</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>yedihilal iftarprogramı</t>
+          <t xml:space="preserve"> A  B Üniversite Öğrencileri Araştırma Projeleri Destekleme Programı   Döneminde  Ankara Üniversitesi projesi desteklenmeye hak kazanmıştır Üniversitemizin kıymetli akademisyen öğrencilerini tebrik ederiz</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1516874752840941570</t>
+          <t>1537049725245042690</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>necdetunuvar</t>
+          <t>AUEBF</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Çok teşekür ediyoruz Sn Miletvekilim</t>
+          <t>Fakültemiz  öğretim yılı mezuniyet töreni büyük bir coşkuyla kutlandı Değerli öğrencilerimizin yolu açık olsun</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1516871017460899840</t>
+          <t>1537043851617132550</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Feafnir</t>
+          <t>ozksglm061</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>madem cecelistsin say lan bütün ceceli şarkılarını</t>
+          <t>nefesol kusu Universite Haydi Ankara ebrarın sesini duyurma nefes olmaya devam edelim</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5167,105 +5162,105 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1516870888699928576</t>
+          <t>1537038104409817088</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ephesoss</t>
+          <t>AytenAy07777624</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>olur olur ben zaten cecelistim</t>
+          <t>nefesol kusu Universite Ebrar bebek yaşasın</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1516870734840315910</t>
+          <t>1537035579292102665</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Feafnir</t>
+          <t>Gamzeim28574220</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>mustafa ceceli gelir bize anca heyecan yapmamak lazım</t>
+          <t>nefesol kusu Universite Haydi ANKARA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1516869512607502339</t>
+          <t>1537035544139599873</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ephesoss</t>
+          <t>Gamzeim28574220</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>bizim bi bahar şenliği vardı sanırım bayramın arkasına</t>
+          <t>nefesol kusu Universite Haydi ANKARA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1516867930687950855</t>
+          <t>1537035512455864321</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>mevz82</t>
+          <t>Gamzeim28574220</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Müstafi hekim istifa etiği kadro PDCde BOŞ istifa onayı kaldırılarak aynı kadroda İSTİFA CEZA SÜRESİ beklemeden çalışmaya başlayabilmeli Kadro açık hekim açık mevzuat kapalı Hastalar randevu bulamıyor Aciler mahşer alanı Müstafi hekime yıl ceza uzun</t>
+          <t>nefesol kusu Universite Haydi ankara</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1516867446413697024</t>
+          <t>1537035476468584453</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>Gamzeim28574220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Bir canın dünyaya geldiğinde ilk aldığı nefeste yanında olan mücadele dolu günlerde büyük bir özveriyle çalışan ebelerimizin ebe adayı öğrencilerimizin EbelerHaftasını kutlarız DEKANLIK</t>
+          <t>nefesol kusu Universite Destekleriniz Ebrar bebek kurtulabilir</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5277,39 +5272,39 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1516864129318928384</t>
+          <t>1537035425440747524</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>AUEBF</t>
+          <t>Gamzeim28574220</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi “Meclis Bahçesi Çocuk Bahçesi Nisan Bilim Şenliği” açılışına Eğitim Bilimleri Fakültesi öğrencileri katıldı</t>
+          <t>nefesol kusu Universite Ebrar bebek yaşasın</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1516862374900285444</t>
+          <t>1537012723392712704</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Fakültemiz akademik idari personeli iftar programında bir araya geldi</t>
+          <t>Eğitim Bilimleri Fakültesi mezunlarımızı uğurladık Mezunlarımızı kutluyoruz AnkaraÜniversitesindenMezunOldum</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5321,83 +5316,83 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1516855940326338568</t>
+          <t>1537005221230125056</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>apolatduzgun</t>
+          <t>m_ali_albayrak</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramı Haftası dolayısıyla Meclis Bahçesi Çocuk Bahçesi programları kapsamında ’miz tarafından açılan standları gezdik Rektör Sn a hocalarımıza öğrencilerimize teşekür ediyorum</t>
+          <t>mi araştıracak konuyu Siz Ankara üniversiteleri Universite ODTU ilgili bölümleri işe yararsınız organize etsenize bir çalıştay</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Sinirli</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1516850417405202435</t>
+          <t>1536989640288358400</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>yusuffurkanozer</t>
+          <t>FeyzaKalyon</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Vize sonuçlarım açıklanıyor yeni işim olacak üzücü teşekürler</t>
+          <t>Lütfen açıklayın</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1516848342160003079</t>
+          <t>1536989563834486784</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ankeczacilik</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>“Meclis Bahçesi Çocuk Bahçesi” Programı kapsamında Rektörümüz ProfDr Rektör Yardımcılarımız atölyelerimizi ziyaret eti Programda öğretim elemanlarımız krem imalatı mikrorganizmalarla tanışma uçucu yağlar atölyeleri yerini aldı</t>
+          <t xml:space="preserve">Seminere davetlisiniz Fakültemiz Dekanı Sn Prof Dr Semiyha TUNCEL hocamız nda Spor Yaparım Kariyer de Egzersizin Akademik Başarıya Etkisi konulu semineri verecektir  Haziran  Perşembe </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Korku</t>
+          <t>Üzgün</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1516846952788508675</t>
+          <t>1536984950871932929</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ankeczacilik</t>
+          <t>Bozenli</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Öğretim elemanlarımız “Meclis Bahçesi Çocuk Bahçesi” Programı’nda farklı disiplindeki atölye yer aldıDekanımız ProfDrAsuman Bozkır Dekan Yardımcılarımız atölyelerimizi ziyaret etiEmeği geçen öğretim elemanlarımıza teşekürlerimizi sunarız</t>
+          <t>den Diş Hekimi olarak mezun olan kızım İreme ömür boyu başarılar Alahtan daim muvafak olmasını dilerim⚘ Diş Hekimi olarak Türkiyemize kazandırılmasına emeği geçen Akademisyenlerimize teşekür ederim⚘</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5409,61 +5404,61 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1516845006857904131</t>
+          <t>1536984446754250754</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>SKS_Ankara</t>
+          <t>Selin373074842</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Sosyal Deney Üniversitemiz Öğrencilerine Kitap Sürprizleri DünyaKitapGünü KitapHediyeGünü bahanemiz oldu öğrencilerimize kitaplar hediye etik Devamı SosyalDeney Kitap AnkaraÜniversitesi</t>
+          <t>Ortalama bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda aciklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1516808524180955137</t>
+          <t>1536975549326843905</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ucakyapanadam</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Bu önemli kıymetli etkinlik benim aynı zamanda büyük gurur kaynağı Çünkü eşim konuşmacılardan biriydi Darısı nice başaralara avim</t>
+          <t>Eğitim Bilimleri Fakültesi Mezuniyet Töreni</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Korku</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1516792667576799233</t>
+          <t>1536962116472676352</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>Dismacunuuu</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi TÜBİTAK İş Birliğiyle Düzenlenen “Meclis Bahçesi Çocuk Bahçesi Nisan Bilim Şenliği”nin Açılışı Türkiye Büyük Milet Meclisi Ev Sahipliğinde Gerçekleştirildi unihaber</t>
+          <t>Ortalama  bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda açıklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer yeterturmob</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5475,29 +5470,29 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1516791902661746692</t>
+          <t>1536959567862673409</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PazukGalina</t>
+          <t>aysunmetinn</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>They are the best of us They stand to the last for Mariupol They are heroes who daily perform a feat not only for Ukraine but for the entire civilized world Save them by the sea Do the imposible Only you can do it</t>
+          <t>Ortalama bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda aciklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sinirli</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1516787952520728581</t>
+          <t>1536958394615181313</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5507,29 +5502,29 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Ankara yüzlerce bisikleti öğrencilerimizin kulanımına sundu unihaber</t>
+          <t>Ankara Üniversitesi Diş Hekimliği Fakültesinde Mezuniyet Heyecanı AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1516787732617519105</t>
+          <t>1536957661849206787</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AnkaraUni</t>
+          <t>TurkiyeHaberiTR</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesi Çimento Endüstrisi İşverenleri Sendikası Arasında İş Birliği Protokolü İmzalandı unihaber</t>
+          <t>Rotary’den Ankara Üniversitesi yeni doğana kuvöz bağışı</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5541,17 +5536,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1516779486544547843</t>
+          <t>1536948743303532544</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Kara92037720</t>
+          <t>burcu_gs_34</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Ortalama  bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda açıklamak kadar zor duy sesimizi yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5563,17 +5558,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1516779367606718468</t>
+          <t>1536909109437640705</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>selvacam</t>
+          <t>tfln55</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Nisan Ulusal Egemenlik Çocuk Bayramı Haftası dolayısıyla Meclis Bahçesi Çocuk Bahçesi programları kapsamında ’miz tarafından açılan standları gezdik Üniversitemiz rektörü hocalarımıza öğrencilerimize teşekür ediyoruz ️</t>
+          <t>Ortalama bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda aciklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5585,374 +5580,132 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1516773012992933895</t>
+          <t>1536816703623020544</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ankara_Saglik</t>
+          <t>ankarasporbilim</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Nisan Çocuklar Şenliği Haftası nedeniyle bahçesindeÇocuk Bilim Merkezi işbirliği düzenlenen “Meclis Bahçesi Çocuk Bahçesi” programında Fakültemizin bölümleriöğretim elemanlarımız öğrencilerimiz”Sağlıklı Yaşam Atölyesi”nde çocuklar buluştu</t>
+          <t>A Mili Takım UEFA Uluslar C Ligi  Grup dördüncü maçında konuk etiği Litvanyayı  yenerek te  yaptı namağlup liderliğini sürdürdü Harikasınız BizimÇocuklar LUXTUR NationsLeague</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Mutlu</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1516772332324462595</t>
+          <t>1536811910468931586</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ankarahavadis</t>
+          <t>AnkaraUni</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Ankara Üniversitesinde Ermeni Terörü Şehit Diplomatlarımız Konferansı Düzenlendi</t>
+          <t>Genç Eczacılar Mesleğe İlk Adımı Atı AnkaraÜniversitesindenMezunOldum unihaber</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1516768821041942529</t>
+          <t>1536804602372407296</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ankara_Saglik</t>
+          <t>JHCnews</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>bahçesinden gerçekleştirilen”Meclis Bahçesi Çocuk Bahçesi”programına Fakültemiz”Sağlıklı Yaşam Atölyesi”ile katılmıştırÇocukların yoğun ilgi gösterdiği atölyeyi ziyaret etmişlerdir</t>
+          <t>New in JHC Researchers from and publish “Intracelular Redistribution of Left Ventricular Conexin  Contributes to the Remodeling of Electrical Properties of the Heart in Insulinresistant Elderly Rats” arhythmia aging</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Sürpriz</t>
+          <t>Mutlu</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1516748521378037761</t>
+          <t>1536797375733370881</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>ShadofOfPolitic</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Bursa’da İnfaz Koruma Memurlarının otobüsünün geçişi sırasında gerçekleştirilen alçak terör saldırısı sonrası şehit olan Cengiz YİĞİTe Alahtan rahmet yaralılarımıza acil şifalar diliyoruz Miletimizin başı sağolsun</t>
+          <t>Ortalama  bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda açıklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1516742685356347399</t>
+          <t>1536794185331838976</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AUZF</t>
+          <t>GrkmYasin</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Öğrenci Etkinlikleri Haftası Mayıs ÖğrenciKongresi SektörleBuluşmaveKariyerGünü CansuyuBayramı TarımÇevreveYaşamBilimleriŞenliği HATAR senelozkan</t>
+          <t>Ortalama  bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda açıklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Üzgün</t>
+          <t>Sürpriz</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1516742599138238467</t>
+          <t>1536792064242991104</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ankarasporbilim</t>
+          <t>mehmetgunaynet</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>TBMNisanEtkinlikleri kapsamında gerçekleştirilen “Meclis Bahçesi Çocuk Bahçesi” başlıklı programın açılışına katıldık</t>
+          <t>Ortalama bin kişinin katıldığı günümüz teknolojisinde geç bir haftada açıklanabilecek SGS sınavını bir ayda aciklamaktan ilkelikten sıkılmadın mı yeterturmob tesmer</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>Sürpriz</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>1516739899206025217</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>SKS_Ankara</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>“Şehrimi Tanıyorum” un gezisinde kitapların diyarına Ata’nın mirasına yolculuk yapıyoruz Mili Kütüphane Atatürk Orman Çiftliği Atatürk Evi Başvurular Sat AnkaraÜniversitesi</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Üzgün</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>1516723691559829505</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>AnkaraUni</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Kısa bir mola</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Mutlu</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>1516711739588591616</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>ilefsocial</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Fotoğraf Video Fujifilm Ankara Workshop devam ediyor fotograf</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Korku</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>1516706956064473092</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>netlab_media</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Fotoğraf Video Fujifilm Ankara Workshop devam ediyor fotograf</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Korku</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>1516699387094786051</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>AUEBF</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>“’ten Günümüze TürkErmeni İlişkileri Yol Ayrımından Normaleşmeye” konulu panel Nisan Pazartesi günü sat ’ Ankara Üniversitesi Avrupa Toplulukları Araştırma Ve Uygulama Merkezinde ATAUM gerçekleştirilecektir</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Mutlu</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>1516596011254403076</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>ReyhanSarikaya4</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Ankara Bırakırlar güzel bir proje</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Sürpriz</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>1516581438862336009</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>sbfmugam</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>MÜGAMKAS Göç Sertifika Programının günü konuşmacıları Prof Dr Ayhan Kaya Avrupadaki Türkiyedeki Popülizm Radikaleşme Marmara Belediyeleri Birliği GPM müdürü BŞener Belediyelerin Göç Süreç Yönetimleri</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Mutlu</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>1516519508558680070</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>ankarasporbilim</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>PençeKilit operasyon bölgesinde şehit düşen kahraman Piyade Teğmen Kan Kanlıkuyuya Alahtan rahmet kederli ailesine silah arkadaşlarına başsağlığı dileriz Mekanı cenet makamı âli olsun Aziz Miletimizin başı sağolsun</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Korku</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>1516512209576374280</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>SKS_Ankara</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>AnküBis seferleri başlıyor Yerleşkelerimizde güzel havanın tadını bisiklet turları çıkarıyoruz ️AnküsBis şimdilik Gölbaşı Beşevler’de yakında yerleşkelerimizde olacak AnkaraÜniversitesi</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Üzgün</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>1516492754255290372</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>BizimAnkara</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Ankara Üniversitesinde Asalanın Şehit Etiği Türk Diplomatlar Anıldı Ankara BizimAnkara Fen</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Mutlu</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>1516454052741136385</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>UniAktuel</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Anadolu kültüründe kendisinden olmayanı ötekileştirmek yok saymak yoktur Bugün anlayış devam ediyor</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Üzgün</t>
         </is>
       </c>
     </row>
